--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9937210891289857</v>
+        <v>0.9937210891289855</v>
       </c>
       <c r="D2">
         <v>1.014503747299785</v>
@@ -442,7 +442,7 @@
         <v>1.016091237071665</v>
       </c>
       <c r="K2">
-        <v>1.025764653242863</v>
+        <v>1.025764653242862</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001735386663878</v>
+        <v>1.001735386663881</v>
       </c>
       <c r="D3">
-        <v>1.020781242497051</v>
+        <v>1.020781242497053</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.018851116533792</v>
+        <v>1.018851116533794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047259019401527</v>
+        <v>1.047259019401529</v>
       </c>
       <c r="J3">
-        <v>1.022178854825291</v>
+        <v>1.022178854825294</v>
       </c>
       <c r="K3">
-        <v>1.031154952838518</v>
+        <v>1.031154952838522</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.029248344390217</v>
+        <v>1.029248344390219</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00674585234221</v>
+        <v>1.006745852342211</v>
       </c>
       <c r="D4">
         <v>1.024707748730119</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049051388510999</v>
+        <v>1.049051388511</v>
       </c>
       <c r="J4">
         <v>1.025978558592539</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033387517745526</v>
+        <v>1.033387517745527</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.026327904074996</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.025511961654043</v>
@@ -559,10 +559,10 @@
         <v>1.035901725767559</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.035094796461019</v>
+        <v>1.03509479646102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00915767978234</v>
+        <v>1.009157679782341</v>
       </c>
       <c r="D6">
-        <v>1.026598195348263</v>
+        <v>1.026598195348264</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.025836782215626</v>
+        <v>1.025836782215627</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>1.027805663598943</v>
       </c>
       <c r="K6">
-        <v>1.036132631040991</v>
+        <v>1.036132631040992</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.035379586696122</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006773623352776</v>
+        <v>1.006773623352777</v>
       </c>
       <c r="D7">
-        <v>1.024729515002162</v>
+        <v>1.024729515002163</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.02359157047067</v>
@@ -629,16 +629,16 @@
         <v>1.049061286180943</v>
       </c>
       <c r="J7">
-        <v>1.025999604148964</v>
+        <v>1.025999604148965</v>
       </c>
       <c r="K7">
         <v>1.034535459693952</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.033410456930136</v>
+        <v>1.033410456930137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996467493933069</v>
+        <v>0.9964674939330689</v>
       </c>
       <c r="D8">
         <v>1.016654492236926</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
         <v>1.013900869428592</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9768331928447961</v>
+        <v>0.9768331928447964</v>
       </c>
       <c r="D9">
-        <v>1.001292766479802</v>
+        <v>1.001292766479803</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9955066160974578</v>
+        <v>0.9955066160974583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038185770368154</v>
+        <v>1.038185770368155</v>
       </c>
       <c r="J9">
-        <v>1.003231416950453</v>
+        <v>1.003231416950454</v>
       </c>
       <c r="K9">
         <v>1.01436490421282</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.008673018445492</v>
+        <v>1.008673018445493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625417964656323</v>
+        <v>0.9625417964656313</v>
       </c>
       <c r="D10">
-        <v>0.990137236159473</v>
+        <v>0.9901372361594726</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9821734328610759</v>
+        <v>0.9821734328610749</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032882420597077</v>
       </c>
       <c r="J10">
-        <v>0.9923246613912763</v>
+        <v>0.9923246613912754</v>
       </c>
       <c r="K10">
         <v>1.004686878830686</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9968721877901396</v>
+        <v>0.9968721877901384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.956011016958024</v>
+        <v>0.9560110169580246</v>
       </c>
       <c r="D11">
-        <v>0.9850484998280913</v>
+        <v>0.9850484998280922</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9760962647144754</v>
+        <v>0.976096264714476</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030441313779612</v>
       </c>
       <c r="J11">
-        <v>0.987335627500263</v>
+        <v>0.9873356275002635</v>
       </c>
       <c r="K11">
-        <v>1.000257997255177</v>
+        <v>1.000257997255178</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9914835022397092</v>
+        <v>0.9914835022397098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535278828372022</v>
+        <v>0.9535278828372012</v>
       </c>
       <c r="D12">
-        <v>0.983115300856111</v>
+        <v>0.9831153008561099</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9737882173928922</v>
+        <v>0.9737882173928919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029510657702024</v>
+        <v>1.029510657702023</v>
       </c>
       <c r="J12">
-        <v>0.9854380996188327</v>
+        <v>0.9854380996188319</v>
       </c>
       <c r="K12">
-        <v>0.9985732954595028</v>
+        <v>0.998573295459502</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9894354333548767</v>
+        <v>0.9894354333548762</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9540632214866015</v>
+        <v>0.9540632214866025</v>
       </c>
       <c r="D13">
-        <v>0.9835320000666322</v>
+        <v>0.983532000066633</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9742856867743358</v>
+        <v>0.9742856867743367</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029711407817492</v>
       </c>
       <c r="J13">
-        <v>0.985847211814276</v>
+        <v>0.9858472118142769</v>
       </c>
       <c r="K13">
-        <v>0.9989365306859637</v>
+        <v>0.9989365306859644</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9898769355535775</v>
+        <v>0.9898769355535783</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558069667235279</v>
+        <v>0.9558069667235281</v>
       </c>
       <c r="D14">
-        <v>0.9848896052313749</v>
+        <v>0.9848896052313754</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9759065476408982</v>
+        <v>0.975906547640898</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.0303648872605</v>
       </c>
       <c r="J14">
-        <v>0.9871797103153284</v>
+        <v>0.9871797103153287</v>
       </c>
       <c r="K14">
         <v>1.000119571794013</v>
@@ -904,7 +904,7 @@
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9913151853165389</v>
+        <v>0.9913151853165388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9568735600459192</v>
+        <v>0.9568735600459186</v>
       </c>
       <c r="D15">
-        <v>0.9857202333555974</v>
+        <v>0.9857202333555964</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9768983275714678</v>
+        <v>0.9768983275714672</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030764276800498</v>
+        <v>1.030764276800497</v>
       </c>
       <c r="J15">
-        <v>0.9879946835433797</v>
+        <v>0.9879946835433792</v>
       </c>
       <c r="K15">
-        <v>1.000843107831169</v>
+        <v>1.000843107831168</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9921950312140068</v>
+        <v>0.9921950312140062</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629675279321587</v>
+        <v>0.9629675279321586</v>
       </c>
       <c r="D16">
-        <v>0.9904691721638208</v>
+        <v>0.9904691721638205</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9825699385385197</v>
+        <v>0.9825699385385196</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.033041201516399</v>
       </c>
       <c r="J16">
-        <v>0.9926497987234206</v>
+        <v>0.9926497987234203</v>
       </c>
       <c r="K16">
         <v>1.00497547678806</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
         <v>0.9972235675908037</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666945651640271</v>
+        <v>0.9666945651640261</v>
       </c>
       <c r="D17">
-        <v>0.9933761276310203</v>
+        <v>0.9933761276310196</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9860429126793918</v>
+        <v>0.9860429126793911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034429276603398</v>
+        <v>1.034429276603397</v>
       </c>
       <c r="J17">
-        <v>0.9954956519562455</v>
+        <v>0.9954956519562445</v>
       </c>
       <c r="K17">
         <v>1.007501302742732</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.000300167276684</v>
+        <v>1.000300167276683</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688358768393134</v>
+        <v>0.9688358768393139</v>
       </c>
       <c r="D18">
-        <v>0.9950470980597839</v>
+        <v>0.9950470980597845</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9880397079980384</v>
+        <v>0.9880397079980391</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>1.035225117626799</v>
       </c>
       <c r="J18">
-        <v>0.9971302209694446</v>
+        <v>0.9971302209694451</v>
       </c>
       <c r="K18">
-        <v>1.008951876247053</v>
+        <v>1.008951876247054</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9695606411161066</v>
+        <v>0.9695606411161057</v>
       </c>
       <c r="D19">
-        <v>0.9956127991999478</v>
+        <v>0.9956127991999465</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.988715797638303</v>
+        <v>0.9887157976383018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035494198889107</v>
+        <v>1.035494198889106</v>
       </c>
       <c r="J19">
-        <v>0.9976833853167616</v>
+        <v>0.9976833853167604</v>
       </c>
       <c r="K19">
-        <v>1.009442740972993</v>
+        <v>1.009442740972992</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>1.0026665894557</v>
+        <v>1.002666589455699</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9662981012722092</v>
+        <v>0.9662981012722106</v>
       </c>
       <c r="D20">
-        <v>0.9930668123977452</v>
+        <v>0.9930668123977467</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9856733220921967</v>
+        <v>0.9856733220921977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034281791303919</v>
+        <v>1.03428179130392</v>
       </c>
       <c r="J20">
-        <v>0.9951929722268306</v>
+        <v>0.9951929722268319</v>
       </c>
       <c r="K20">
-        <v>1.007232679027241</v>
+        <v>1.007232679027242</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9999728553010294</v>
+        <v>0.9999728553010305</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9552951111085982</v>
+        <v>0.9552951111085978</v>
       </c>
       <c r="D21">
-        <v>0.9844910489506726</v>
+        <v>0.9844910489506721</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9754306893590996</v>
+        <v>0.9754306893590992</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030173133406142</v>
+        <v>1.030173133406141</v>
       </c>
       <c r="J21">
-        <v>0.9867885863700038</v>
+        <v>0.9867885863700031</v>
       </c>
       <c r="K21">
-        <v>0.9997723231380896</v>
+        <v>0.9997723231380892</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9908929798889718</v>
+        <v>0.9908929798889713</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480418629477134</v>
+        <v>0.9480418629477115</v>
       </c>
       <c r="D22">
-        <v>0.9788476441673069</v>
+        <v>0.9788476441673049</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9686941647038596</v>
+        <v>0.9686941647038579</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027450112400712</v>
+        <v>1.02745011240071</v>
       </c>
       <c r="J22">
-        <v>0.9812449455577463</v>
+        <v>0.9812449455577447</v>
       </c>
       <c r="K22">
-        <v>0.994850111026394</v>
+        <v>0.9948501110263923</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9849123959119576</v>
+        <v>0.9849123959119562</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9519209401284738</v>
+        <v>0.9519209401284736</v>
       </c>
       <c r="D23">
-        <v>0.9818647465146845</v>
+        <v>0.9818647465146841</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9722953527736456</v>
+        <v>0.972295352773645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02890770618546</v>
+        <v>1.028907706185459</v>
       </c>
       <c r="J23">
-        <v>0.9842099797808022</v>
+        <v>0.984209979780802</v>
       </c>
       <c r="K23">
-        <v>0.9974828671272996</v>
+        <v>0.9974828671272995</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9881103012435589</v>
+        <v>0.9881103012435585</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664773465703528</v>
+        <v>0.9664773465703529</v>
       </c>
       <c r="D24">
         <v>0.9932066543717546</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9858404132034686</v>
+        <v>0.9858404132034688</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.034348476046733</v>
       </c>
       <c r="J24">
-        <v>0.9953298182438435</v>
+        <v>0.9953298182438436</v>
       </c>
       <c r="K24">
         <v>1.007354128382995</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
         <v>1.000120835235612</v>
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821037476496123</v>
+        <v>0.9821037476496119</v>
       </c>
       <c r="D25">
         <v>1.00541285689511</v>
@@ -1313,10 +1313,10 @@
         <v>1.040125952181079</v>
       </c>
       <c r="J25">
-        <v>1.007248775669472</v>
+        <v>1.007248775669471</v>
       </c>
       <c r="K25">
-        <v>1.01792772236356</v>
+        <v>1.017927722363559</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9937210891289855</v>
+        <v>0.9937210891289857</v>
       </c>
       <c r="D2">
         <v>1.014503747299785</v>
@@ -442,7 +442,7 @@
         <v>1.016091237071665</v>
       </c>
       <c r="K2">
-        <v>1.025764653242862</v>
+        <v>1.025764653242863</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001735386663881</v>
+        <v>1.001735386663878</v>
       </c>
       <c r="D3">
-        <v>1.020781242497053</v>
+        <v>1.020781242497051</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.018851116533794</v>
+        <v>1.018851116533792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047259019401529</v>
+        <v>1.047259019401527</v>
       </c>
       <c r="J3">
-        <v>1.022178854825294</v>
+        <v>1.022178854825291</v>
       </c>
       <c r="K3">
-        <v>1.031154952838522</v>
+        <v>1.031154952838518</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.029248344390219</v>
+        <v>1.029248344390217</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006745852342211</v>
+        <v>1.00674585234221</v>
       </c>
       <c r="D4">
         <v>1.024707748730119</v>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049051388511</v>
+        <v>1.049051388510999</v>
       </c>
       <c r="J4">
         <v>1.025978558592539</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033387517745527</v>
+        <v>1.033387517745526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,7 +541,7 @@
         <v>1.026327904074996</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.025511961654043</v>
@@ -559,10 +559,10 @@
         <v>1.035901725767559</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.03509479646102</v>
+        <v>1.035094796461019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009157679782341</v>
+        <v>1.00915767978234</v>
       </c>
       <c r="D6">
-        <v>1.026598195348264</v>
+        <v>1.026598195348263</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.025836782215627</v>
+        <v>1.025836782215626</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>1.027805663598943</v>
       </c>
       <c r="K6">
-        <v>1.036132631040992</v>
+        <v>1.036132631040991</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.035379586696122</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006773623352777</v>
+        <v>1.006773623352776</v>
       </c>
       <c r="D7">
-        <v>1.024729515002163</v>
+        <v>1.024729515002162</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.02359157047067</v>
@@ -629,16 +629,16 @@
         <v>1.049061286180943</v>
       </c>
       <c r="J7">
-        <v>1.025999604148965</v>
+        <v>1.025999604148964</v>
       </c>
       <c r="K7">
         <v>1.034535459693952</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.033410456930137</v>
+        <v>1.033410456930136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9964674939330689</v>
+        <v>0.996467493933069</v>
       </c>
       <c r="D8">
         <v>1.016654492236926</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
         <v>1.013900869428592</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9768331928447964</v>
+        <v>0.9768331928447961</v>
       </c>
       <c r="D9">
-        <v>1.001292766479803</v>
+        <v>1.001292766479802</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9955066160974583</v>
+        <v>0.9955066160974578</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038185770368155</v>
+        <v>1.038185770368154</v>
       </c>
       <c r="J9">
-        <v>1.003231416950454</v>
+        <v>1.003231416950453</v>
       </c>
       <c r="K9">
         <v>1.01436490421282</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.008673018445493</v>
+        <v>1.008673018445492</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625417964656313</v>
+        <v>0.9625417964656323</v>
       </c>
       <c r="D10">
-        <v>0.9901372361594726</v>
+        <v>0.990137236159473</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9821734328610749</v>
+        <v>0.9821734328610759</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032882420597077</v>
       </c>
       <c r="J10">
-        <v>0.9923246613912754</v>
+        <v>0.9923246613912763</v>
       </c>
       <c r="K10">
         <v>1.004686878830686</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9968721877901384</v>
+        <v>0.9968721877901396</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9560110169580246</v>
+        <v>0.956011016958024</v>
       </c>
       <c r="D11">
-        <v>0.9850484998280922</v>
+        <v>0.9850484998280913</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.976096264714476</v>
+        <v>0.9760962647144754</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030441313779612</v>
       </c>
       <c r="J11">
-        <v>0.9873356275002635</v>
+        <v>0.987335627500263</v>
       </c>
       <c r="K11">
-        <v>1.000257997255178</v>
+        <v>1.000257997255177</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9914835022397098</v>
+        <v>0.9914835022397092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535278828372012</v>
+        <v>0.9535278828372022</v>
       </c>
       <c r="D12">
-        <v>0.9831153008561099</v>
+        <v>0.983115300856111</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9737882173928919</v>
+        <v>0.9737882173928922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029510657702023</v>
+        <v>1.029510657702024</v>
       </c>
       <c r="J12">
-        <v>0.9854380996188319</v>
+        <v>0.9854380996188327</v>
       </c>
       <c r="K12">
-        <v>0.998573295459502</v>
+        <v>0.9985732954595028</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9894354333548762</v>
+        <v>0.9894354333548767</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9540632214866025</v>
+        <v>0.9540632214866015</v>
       </c>
       <c r="D13">
-        <v>0.983532000066633</v>
+        <v>0.9835320000666322</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9742856867743367</v>
+        <v>0.9742856867743358</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029711407817492</v>
       </c>
       <c r="J13">
-        <v>0.9858472118142769</v>
+        <v>0.985847211814276</v>
       </c>
       <c r="K13">
-        <v>0.9989365306859644</v>
+        <v>0.9989365306859637</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9898769355535783</v>
+        <v>0.9898769355535775</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558069667235281</v>
+        <v>0.9558069667235279</v>
       </c>
       <c r="D14">
-        <v>0.9848896052313754</v>
+        <v>0.9848896052313749</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.975906547640898</v>
+        <v>0.9759065476408982</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.0303648872605</v>
       </c>
       <c r="J14">
-        <v>0.9871797103153287</v>
+        <v>0.9871797103153284</v>
       </c>
       <c r="K14">
         <v>1.000119571794013</v>
@@ -904,7 +904,7 @@
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9913151853165388</v>
+        <v>0.9913151853165389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9568735600459186</v>
+        <v>0.9568735600459192</v>
       </c>
       <c r="D15">
-        <v>0.9857202333555964</v>
+        <v>0.9857202333555974</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9768983275714672</v>
+        <v>0.9768983275714678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030764276800497</v>
+        <v>1.030764276800498</v>
       </c>
       <c r="J15">
-        <v>0.9879946835433792</v>
+        <v>0.9879946835433797</v>
       </c>
       <c r="K15">
-        <v>1.000843107831168</v>
+        <v>1.000843107831169</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9921950312140062</v>
+        <v>0.9921950312140068</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629675279321586</v>
+        <v>0.9629675279321587</v>
       </c>
       <c r="D16">
-        <v>0.9904691721638205</v>
+        <v>0.9904691721638208</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9825699385385196</v>
+        <v>0.9825699385385197</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.033041201516399</v>
       </c>
       <c r="J16">
-        <v>0.9926497987234203</v>
+        <v>0.9926497987234206</v>
       </c>
       <c r="K16">
         <v>1.00497547678806</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
         <v>0.9972235675908037</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666945651640261</v>
+        <v>0.9666945651640271</v>
       </c>
       <c r="D17">
-        <v>0.9933761276310196</v>
+        <v>0.9933761276310203</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9860429126793911</v>
+        <v>0.9860429126793918</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034429276603397</v>
+        <v>1.034429276603398</v>
       </c>
       <c r="J17">
-        <v>0.9954956519562445</v>
+        <v>0.9954956519562455</v>
       </c>
       <c r="K17">
         <v>1.007501302742732</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.000300167276683</v>
+        <v>1.000300167276684</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688358768393139</v>
+        <v>0.9688358768393134</v>
       </c>
       <c r="D18">
-        <v>0.9950470980597845</v>
+        <v>0.9950470980597839</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9880397079980391</v>
+        <v>0.9880397079980384</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,10 +1047,10 @@
         <v>1.035225117626799</v>
       </c>
       <c r="J18">
-        <v>0.9971302209694451</v>
+        <v>0.9971302209694446</v>
       </c>
       <c r="K18">
-        <v>1.008951876247054</v>
+        <v>1.008951876247053</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9695606411161057</v>
+        <v>0.9695606411161066</v>
       </c>
       <c r="D19">
-        <v>0.9956127991999465</v>
+        <v>0.9956127991999478</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9887157976383018</v>
+        <v>0.988715797638303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035494198889106</v>
+        <v>1.035494198889107</v>
       </c>
       <c r="J19">
-        <v>0.9976833853167604</v>
+        <v>0.9976833853167616</v>
       </c>
       <c r="K19">
-        <v>1.009442740972992</v>
+        <v>1.009442740972993</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.002666589455699</v>
+        <v>1.0026665894557</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9662981012722106</v>
+        <v>0.9662981012722092</v>
       </c>
       <c r="D20">
-        <v>0.9930668123977467</v>
+        <v>0.9930668123977452</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9856733220921977</v>
+        <v>0.9856733220921967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03428179130392</v>
+        <v>1.034281791303919</v>
       </c>
       <c r="J20">
-        <v>0.9951929722268319</v>
+        <v>0.9951929722268306</v>
       </c>
       <c r="K20">
-        <v>1.007232679027242</v>
+        <v>1.007232679027241</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9999728553010305</v>
+        <v>0.9999728553010294</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9552951111085978</v>
+        <v>0.9552951111085982</v>
       </c>
       <c r="D21">
-        <v>0.9844910489506721</v>
+        <v>0.9844910489506726</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9754306893590992</v>
+        <v>0.9754306893590996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030173133406141</v>
+        <v>1.030173133406142</v>
       </c>
       <c r="J21">
-        <v>0.9867885863700031</v>
+        <v>0.9867885863700038</v>
       </c>
       <c r="K21">
-        <v>0.9997723231380892</v>
+        <v>0.9997723231380896</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9908929798889713</v>
+        <v>0.9908929798889718</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480418629477115</v>
+        <v>0.9480418629477134</v>
       </c>
       <c r="D22">
-        <v>0.9788476441673049</v>
+        <v>0.9788476441673069</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9686941647038579</v>
+        <v>0.9686941647038596</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02745011240071</v>
+        <v>1.027450112400712</v>
       </c>
       <c r="J22">
-        <v>0.9812449455577447</v>
+        <v>0.9812449455577463</v>
       </c>
       <c r="K22">
-        <v>0.9948501110263923</v>
+        <v>0.994850111026394</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9849123959119562</v>
+        <v>0.9849123959119576</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9519209401284736</v>
+        <v>0.9519209401284738</v>
       </c>
       <c r="D23">
-        <v>0.9818647465146841</v>
+        <v>0.9818647465146845</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.972295352773645</v>
+        <v>0.9722953527736456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028907706185459</v>
+        <v>1.02890770618546</v>
       </c>
       <c r="J23">
-        <v>0.984209979780802</v>
+        <v>0.9842099797808022</v>
       </c>
       <c r="K23">
-        <v>0.9974828671272995</v>
+        <v>0.9974828671272996</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9881103012435585</v>
+        <v>0.9881103012435589</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664773465703529</v>
+        <v>0.9664773465703528</v>
       </c>
       <c r="D24">
         <v>0.9932066543717546</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9858404132034688</v>
+        <v>0.9858404132034686</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>1.034348476046733</v>
       </c>
       <c r="J24">
-        <v>0.9953298182438436</v>
+        <v>0.9953298182438435</v>
       </c>
       <c r="K24">
         <v>1.007354128382995</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
         <v>1.000120835235612</v>
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821037476496119</v>
+        <v>0.9821037476496123</v>
       </c>
       <c r="D25">
         <v>1.00541285689511</v>
@@ -1313,10 +1313,10 @@
         <v>1.040125952181079</v>
       </c>
       <c r="J25">
-        <v>1.007248775669471</v>
+        <v>1.007248775669472</v>
       </c>
       <c r="K25">
-        <v>1.017927722363559</v>
+        <v>1.01792772236356</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9937210891289857</v>
+        <v>0.9937437838841778</v>
       </c>
       <c r="D2">
-        <v>1.014503747299785</v>
+        <v>1.014522079421075</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.011322604297669</v>
+        <v>1.011341479677047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044366708119141</v>
+        <v>1.04437651665136</v>
       </c>
       <c r="J2">
-        <v>1.016091237071665</v>
+        <v>1.016113241177416</v>
       </c>
       <c r="K2">
-        <v>1.025764653242863</v>
+        <v>1.025782739070835</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.022626419182696</v>
+        <v>1.022645038959628</v>
+      </c>
+      <c r="N2">
+        <v>1.011379372748724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001735386663878</v>
+        <v>1.001750416013597</v>
       </c>
       <c r="D3">
-        <v>1.020781242497051</v>
+        <v>1.020793399971754</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.018851116533792</v>
+        <v>1.018863609260233</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047259019401527</v>
+        <v>1.047265530776298</v>
       </c>
       <c r="J3">
-        <v>1.022178854825291</v>
+        <v>1.022193476397794</v>
       </c>
       <c r="K3">
-        <v>1.031154952838518</v>
+        <v>1.031166962531345</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.029248344390217</v>
+        <v>1.029260684543562</v>
+      </c>
+      <c r="N3">
+        <v>1.015726348402441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00674585234221</v>
+        <v>1.006756203317795</v>
       </c>
       <c r="D4">
-        <v>1.024707748730119</v>
+        <v>1.024716128953854</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.023565424648318</v>
+        <v>1.023574025461045</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049051388510999</v>
+        <v>1.049055879769556</v>
       </c>
       <c r="J4">
-        <v>1.025978558592539</v>
+        <v>1.025988649558943</v>
       </c>
       <c r="K4">
-        <v>1.03451684516136</v>
+        <v>1.034525130172051</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033387517745526</v>
+        <v>1.033396020569771</v>
+      </c>
+      <c r="N4">
+        <v>1.018434940374302</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008812859687739</v>
+        <v>1.008821304817873</v>
       </c>
       <c r="D5">
-        <v>1.026327904074996</v>
+        <v>1.026334743676159</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.025511961654043</v>
+        <v>1.025518977806167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049786922923234</v>
+        <v>1.049790589512848</v>
       </c>
       <c r="J5">
-        <v>1.027544521730433</v>
+        <v>1.027552761641916</v>
       </c>
       <c r="K5">
-        <v>1.035901725767559</v>
+        <v>1.035908489891134</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.035094796461019</v>
+        <v>1.03510173503573</v>
+      </c>
+      <c r="N5">
+        <v>1.019550095115496</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00915767978234</v>
+        <v>1.009165808313521</v>
       </c>
       <c r="D6">
-        <v>1.026598195348263</v>
+        <v>1.026604778917083</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.025836782215626</v>
+        <v>1.025843535169626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049909394714424</v>
+        <v>1.049912924212158</v>
       </c>
       <c r="J6">
-        <v>1.027805663598943</v>
+        <v>1.027813595710335</v>
       </c>
       <c r="K6">
-        <v>1.036132631040991</v>
+        <v>1.036139142315473</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.035379586696122</v>
+        <v>1.035386265360467</v>
+      </c>
+      <c r="N6">
+        <v>1.019735992717561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006773623352776</v>
+        <v>1.006783948630831</v>
       </c>
       <c r="D7">
-        <v>1.024729515002162</v>
+        <v>1.024737874460033</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.02359157047067</v>
+        <v>1.023600149913456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049061286180943</v>
+        <v>1.049065766326748</v>
       </c>
       <c r="J7">
-        <v>1.025999604148964</v>
+        <v>1.026009670177417</v>
       </c>
       <c r="K7">
-        <v>1.034535459693952</v>
+        <v>1.034543724211397</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.033410456930136</v>
+        <v>1.033418938666707</v>
+      </c>
+      <c r="N7">
+        <v>1.0184499318502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996467493933069</v>
+        <v>0.9964875356207861</v>
       </c>
       <c r="D8">
-        <v>1.016654492236926</v>
+        <v>1.016670689281104</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.013900869428592</v>
+        <v>1.013917534912018</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045361181452232</v>
+        <v>1.045369850576745</v>
       </c>
       <c r="J8">
-        <v>1.018178665289545</v>
+        <v>1.018198119955467</v>
       </c>
       <c r="K8">
-        <v>1.027613496267157</v>
+        <v>1.027629482825762</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.024895780110309</v>
+        <v>1.024912227544435</v>
+      </c>
+      <c r="N8">
+        <v>1.012870917292084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9768331928447961</v>
+        <v>0.9768728595792613</v>
       </c>
       <c r="D9">
-        <v>1.001292766479802</v>
+        <v>1.001324705306948</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9955066160974578</v>
+        <v>0.9955396470561994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038185770368154</v>
+        <v>1.038202824798891</v>
       </c>
       <c r="J9">
-        <v>1.003231416950453</v>
+        <v>1.003269587730276</v>
       </c>
       <c r="K9">
-        <v>1.01436490421282</v>
+        <v>1.014396326592198</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.008673018445492</v>
+        <v>1.008705507284202</v>
+      </c>
+      <c r="N9">
+        <v>1.002170826947967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625417964656323</v>
+        <v>0.9625968254743172</v>
       </c>
       <c r="D10">
-        <v>0.990137236159473</v>
+        <v>0.9901814126911042</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9821734328610759</v>
+        <v>0.9822193012789689</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032882420597077</v>
+        <v>1.032905971782915</v>
       </c>
       <c r="J10">
-        <v>0.9923246613912763</v>
+        <v>0.9923772566445331</v>
       </c>
       <c r="K10">
-        <v>1.004686878830686</v>
+        <v>1.004730236934347</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9968721877901396</v>
+        <v>0.9969171883299904</v>
+      </c>
+      <c r="N10">
+        <v>0.9943385626375209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.956011016958024</v>
+        <v>0.9560734150025499</v>
       </c>
       <c r="D11">
-        <v>0.9850484998280913</v>
+        <v>0.9850985197407892</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9760962647144754</v>
+        <v>0.9761482979911951</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030441313779612</v>
+        <v>1.030467961223077</v>
       </c>
       <c r="J11">
-        <v>0.987335627500263</v>
+        <v>0.987395073296189</v>
       </c>
       <c r="K11">
-        <v>1.000257997255177</v>
+        <v>1.000307035969654</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9914835022397092</v>
+        <v>0.9915344900367804</v>
+      </c>
+      <c r="N11">
+        <v>0.9907503437724606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535278828372022</v>
+        <v>0.9535931451712536</v>
       </c>
       <c r="D12">
-        <v>0.983115300856111</v>
+        <v>0.9831675873259192</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9737882173928922</v>
+        <v>0.9738426479688143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029510657702024</v>
+        <v>1.029538505190923</v>
       </c>
       <c r="J12">
-        <v>0.9854380996188327</v>
+        <v>0.9855001964015505</v>
       </c>
       <c r="K12">
-        <v>0.9985732954595028</v>
+        <v>0.9986245344904989</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9894354333548767</v>
+        <v>0.9894887458081222</v>
+      </c>
+      <c r="N12">
+        <v>0.9893848014882932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9540632214866015</v>
+        <v>0.9541278633092679</v>
       </c>
       <c r="D13">
-        <v>0.9835320000666322</v>
+        <v>0.9835837957405807</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9742856867743358</v>
+        <v>0.9743395979583915</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029711407817492</v>
+        <v>1.029738995494455</v>
       </c>
       <c r="J13">
-        <v>0.985847211814276</v>
+        <v>0.9859087348492083</v>
       </c>
       <c r="K13">
-        <v>0.9989365306859637</v>
+        <v>0.9989872934096421</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9898769355535775</v>
+        <v>0.9899297445213985</v>
+      </c>
+      <c r="N13">
+        <v>0.9896792516444858</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558069667235279</v>
+        <v>0.955869598810313</v>
       </c>
       <c r="D14">
-        <v>0.9848896052313749</v>
+        <v>0.9849398104446221</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9759065476408982</v>
+        <v>0.9759587767804809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0303648872605</v>
+        <v>1.030391632832101</v>
       </c>
       <c r="J14">
-        <v>0.9871797103153284</v>
+        <v>0.9872393729699865</v>
       </c>
       <c r="K14">
-        <v>1.000119571794013</v>
+        <v>1.000168790457935</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9913151853165389</v>
+        <v>0.991366363115829</v>
+      </c>
+      <c r="N14">
+        <v>0.9906381550865698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9568735600459192</v>
+        <v>0.9569349713652249</v>
       </c>
       <c r="D15">
-        <v>0.9857202333555974</v>
+        <v>0.9857694718446216</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9768983275714678</v>
+        <v>0.9769495351306446</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030764276800498</v>
+        <v>1.030790510393252</v>
       </c>
       <c r="J15">
-        <v>0.9879946835433797</v>
+        <v>0.9880532145779839</v>
       </c>
       <c r="K15">
-        <v>1.000843107831169</v>
+        <v>1.000891387561084</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9921950312140068</v>
+        <v>0.9922452178544597</v>
+      </c>
+      <c r="N15">
+        <v>0.9912245288586941</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9629675279321587</v>
+        <v>0.9630220845460242</v>
       </c>
       <c r="D16">
-        <v>0.9904691721638208</v>
+        <v>0.9905129735074801</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9825699385385197</v>
+        <v>0.9826154118981935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033041201516399</v>
+        <v>1.033064553775964</v>
       </c>
       <c r="J16">
-        <v>0.9926497987234206</v>
+        <v>0.9927019533193103</v>
       </c>
       <c r="K16">
-        <v>1.00497547678806</v>
+        <v>1.005018469753991</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9972235675908037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9972681839947567</v>
+      </c>
+      <c r="N16">
+        <v>0.9945722967583307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9666945651640271</v>
+        <v>0.9667450263523362</v>
       </c>
       <c r="D17">
-        <v>0.9933761276310203</v>
+        <v>0.993416673281583</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9860429126793918</v>
+        <v>0.9860849618465182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034429276603398</v>
+        <v>1.034450902030128</v>
       </c>
       <c r="J17">
-        <v>0.9954956519562455</v>
+        <v>0.9955439786225678</v>
       </c>
       <c r="K17">
-        <v>1.007501302742732</v>
+        <v>1.007541125157578</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.000300167276684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.000341451804561</v>
+      </c>
+      <c r="N17">
+        <v>0.9966175004697511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688358768393134</v>
+        <v>0.9688840169086641</v>
       </c>
       <c r="D18">
-        <v>0.9950470980597839</v>
+        <v>0.9950857961312937</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9880397079980384</v>
+        <v>0.9880798171019237</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035225117626799</v>
+        <v>1.03524576256002</v>
       </c>
       <c r="J18">
-        <v>0.9971302209694446</v>
+        <v>0.997176371998857</v>
       </c>
       <c r="K18">
-        <v>1.008951876247053</v>
+        <v>1.008989897732377</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.002068135500242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.002107530378798</v>
+      </c>
+      <c r="N18">
+        <v>0.997791682290868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9695606411161066</v>
+        <v>0.9696080007025162</v>
       </c>
       <c r="D19">
-        <v>0.9956127991999478</v>
+        <v>0.9956508756306502</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.988715797638303</v>
+        <v>0.988755254495954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035494198889107</v>
+        <v>1.035514513834882</v>
       </c>
       <c r="J19">
-        <v>0.9976833853167616</v>
+        <v>0.9977288037814364</v>
       </c>
       <c r="K19">
-        <v>1.009442740972993</v>
+        <v>1.009480156238802</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.0026665894557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.002705348727019</v>
+      </c>
+      <c r="N19">
+        <v>0.9981889553158529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9662981012722092</v>
+        <v>0.9663489947348695</v>
       </c>
       <c r="D20">
-        <v>0.9930668123977452</v>
+        <v>0.993107701942311</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9856733220921967</v>
+        <v>0.9857157326187291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034281791303919</v>
+        <v>1.034303599189231</v>
       </c>
       <c r="J20">
-        <v>0.9951929722268306</v>
+        <v>0.9952417035829028</v>
       </c>
       <c r="K20">
-        <v>1.007232679027241</v>
+        <v>1.007272836519048</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9999728553010294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.00001449164633</v>
+      </c>
+      <c r="N20">
+        <v>0.9964000301661943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9552951111085982</v>
+        <v>0.9553583313259405</v>
       </c>
       <c r="D21">
-        <v>0.9844910489506726</v>
+        <v>0.9845417197322865</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9754306893590996</v>
+        <v>0.9754834107043199</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030173133406142</v>
+        <v>1.030200125509749</v>
       </c>
       <c r="J21">
-        <v>0.9867885863700038</v>
+        <v>0.9868487937810989</v>
       </c>
       <c r="K21">
-        <v>0.9997723231380896</v>
+        <v>0.9998219938749866</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9908929798889718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9909446351074276</v>
+      </c>
+      <c r="N21">
+        <v>0.9903567129460695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480418629477134</v>
+        <v>0.9481135819896389</v>
       </c>
       <c r="D22">
-        <v>0.9788476441673069</v>
+        <v>0.9789050302235827</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9686941647038596</v>
+        <v>0.9687540012815623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027450112400712</v>
+        <v>1.027480658062597</v>
       </c>
       <c r="J22">
-        <v>0.9812449455577463</v>
+        <v>0.981312994413795</v>
       </c>
       <c r="K22">
-        <v>0.994850111026394</v>
+        <v>0.9949062944319637</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9849123959119576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9849709433693801</v>
+      </c>
+      <c r="N22">
+        <v>0.9863657896360609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9519209401284738</v>
+        <v>0.951988075123343</v>
       </c>
       <c r="D23">
-        <v>0.9818647465146845</v>
+        <v>0.9819185134196867</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9722953527736456</v>
+        <v>0.9723513509949441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02890770618546</v>
+        <v>1.028936337226403</v>
       </c>
       <c r="J23">
-        <v>0.9842099797808022</v>
+        <v>0.9842738062441642</v>
       </c>
       <c r="K23">
-        <v>0.9974828671272996</v>
+        <v>0.9975355424087154</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9881103012435589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9881651327737341</v>
+      </c>
+      <c r="N23">
+        <v>0.9885007727723352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9664773465703528</v>
+        <v>0.9665280444991527</v>
       </c>
       <c r="D24">
-        <v>0.9932066543717546</v>
+        <v>0.9932473883676128</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9858404132034686</v>
+        <v>0.9858826602716607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034348476046733</v>
+        <v>1.03437020140479</v>
       </c>
       <c r="J24">
-        <v>0.9953298182438435</v>
+        <v>0.9953783665626541</v>
       </c>
       <c r="K24">
-        <v>1.007354128382995</v>
+        <v>1.007394134319374</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.000120835235612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.000162312444705</v>
+      </c>
+      <c r="N24">
+        <v>0.9964983533488271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821037476496123</v>
+        <v>0.9821379897087074</v>
       </c>
       <c r="D25">
-        <v>1.00541285689511</v>
+        <v>1.005440456471068</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.000435629571087</v>
+        <v>1.000464132709701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040125952181079</v>
+        <v>1.04014069860465</v>
       </c>
       <c r="J25">
-        <v>1.007248775669472</v>
+        <v>1.007281805805312</v>
       </c>
       <c r="K25">
-        <v>1.01792772236356</v>
+        <v>1.017954899371612</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.013027186713339</v>
+        <v>1.013055247885685</v>
+      </c>
+      <c r="N25">
+        <v>1.005050915517158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9937437838841778</v>
+        <v>0.9865708318109762</v>
       </c>
       <c r="D2">
-        <v>1.014522079421075</v>
+        <v>1.00661998104074</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9982322966709528</v>
       </c>
       <c r="F2">
-        <v>1.011341479677047</v>
+        <v>1.000488299756932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04437651665136</v>
+        <v>1.037248119007591</v>
       </c>
       <c r="J2">
-        <v>1.016113241177416</v>
+        <v>1.009160762791249</v>
       </c>
       <c r="K2">
-        <v>1.025782739070835</v>
+        <v>1.017987853054908</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.009716313468147</v>
       </c>
       <c r="M2">
-        <v>1.022645038959628</v>
+        <v>1.011940835977668</v>
       </c>
       <c r="N2">
-        <v>1.011379372748724</v>
+        <v>1.01059388682677</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001750416013597</v>
+        <v>0.9937936405585774</v>
       </c>
       <c r="D3">
-        <v>1.020793399971754</v>
+        <v>1.01195460935669</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.005337194131159</v>
       </c>
       <c r="F3">
-        <v>1.018863609260233</v>
+        <v>1.008221500364386</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047265530776298</v>
+        <v>1.039031259503989</v>
       </c>
       <c r="J3">
-        <v>1.022193476397794</v>
+        <v>1.014454939086459</v>
       </c>
       <c r="K3">
-        <v>1.031166962531345</v>
+        <v>1.022436780069379</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.015902237025608</v>
       </c>
       <c r="M3">
-        <v>1.029260684543562</v>
+        <v>1.018750255334893</v>
       </c>
       <c r="N3">
-        <v>1.015726348402441</v>
+        <v>1.01589558145957</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006756203317795</v>
+        <v>0.9983235766850871</v>
       </c>
       <c r="D4">
-        <v>1.024716128953854</v>
+        <v>1.015302283707695</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.009805677460264</v>
       </c>
       <c r="F4">
-        <v>1.023574025461045</v>
+        <v>1.01308430137824</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049055879769556</v>
+        <v>1.04013633722458</v>
       </c>
       <c r="J4">
-        <v>1.025988649558943</v>
+        <v>1.017770262973958</v>
       </c>
       <c r="K4">
-        <v>1.034525130172051</v>
+        <v>1.025219466167179</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.019787179802045</v>
       </c>
       <c r="M4">
-        <v>1.033396020569771</v>
+        <v>1.02302733419707</v>
       </c>
       <c r="N4">
-        <v>1.018434940374302</v>
+        <v>1.019215613487261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008821304817873</v>
+        <v>1.000195473266211</v>
       </c>
       <c r="D5">
-        <v>1.026334743676159</v>
+        <v>1.01668597809437</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.011655161934872</v>
       </c>
       <c r="F5">
-        <v>1.025518977806167</v>
+        <v>1.015096812307625</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049790589512848</v>
+        <v>1.040589735613161</v>
       </c>
       <c r="J5">
-        <v>1.027552761641916</v>
+        <v>1.019138974966734</v>
       </c>
       <c r="K5">
-        <v>1.035908489891134</v>
+        <v>1.02636744608643</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.021393800878686</v>
       </c>
       <c r="M5">
-        <v>1.03510173503573</v>
+        <v>1.024796264332194</v>
       </c>
       <c r="N5">
-        <v>1.019550095115496</v>
+        <v>1.020586269208061</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009165808313521</v>
+        <v>1.000507920436619</v>
       </c>
       <c r="D6">
-        <v>1.026604778917083</v>
+        <v>1.016916953672158</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.011964043152818</v>
       </c>
       <c r="F6">
-        <v>1.025843535169626</v>
+        <v>1.015432910499648</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049912924212158</v>
+        <v>1.04066522131274</v>
       </c>
       <c r="J6">
-        <v>1.027813595710335</v>
+        <v>1.019367356492907</v>
       </c>
       <c r="K6">
-        <v>1.036139142315473</v>
+        <v>1.026558946308167</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.021662042852702</v>
       </c>
       <c r="M6">
-        <v>1.035386265360467</v>
+        <v>1.025091613926315</v>
       </c>
       <c r="N6">
-        <v>1.019735992717561</v>
+        <v>1.020814975062197</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006783948630831</v>
+        <v>0.9983487143061005</v>
       </c>
       <c r="D7">
-        <v>1.024737874460033</v>
+        <v>1.015320864091017</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.009830502324612</v>
       </c>
       <c r="F7">
-        <v>1.023600149913456</v>
+        <v>1.013111315162902</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049065766326748</v>
+        <v>1.04014243885263</v>
       </c>
       <c r="J7">
-        <v>1.026009670177417</v>
+        <v>1.017788648473418</v>
       </c>
       <c r="K7">
-        <v>1.034543724211397</v>
+        <v>1.025234889997415</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.019808750110647</v>
       </c>
       <c r="M7">
-        <v>1.033418938666707</v>
+        <v>1.023051083083313</v>
       </c>
       <c r="N7">
-        <v>1.0184499318502</v>
+        <v>1.01923402509624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9964875356207861</v>
+        <v>0.9890427748748443</v>
       </c>
       <c r="D8">
-        <v>1.016670689281104</v>
+        <v>1.00844521835445</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.000661234476935</v>
       </c>
       <c r="F8">
-        <v>1.013917534912018</v>
+        <v>1.003132225839243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045369850576745</v>
+        <v>1.03786113918195</v>
       </c>
       <c r="J8">
-        <v>1.018198119955467</v>
+        <v>1.010973668861143</v>
       </c>
       <c r="K8">
-        <v>1.027629482825762</v>
+        <v>1.019511996173993</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.011832256365118</v>
       </c>
       <c r="M8">
-        <v>1.024912227544435</v>
+        <v>1.014269935642573</v>
       </c>
       <c r="N8">
-        <v>1.012870917292084</v>
+        <v>1.012409367431226</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9768728595792613</v>
+        <v>0.9714482201095878</v>
       </c>
       <c r="D9">
-        <v>1.001324705306948</v>
+        <v>0.995467981185245</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9834278594193846</v>
       </c>
       <c r="F9">
-        <v>0.9955396470561994</v>
+        <v>0.9843688364835197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038202824798891</v>
+        <v>1.033443472759902</v>
       </c>
       <c r="J9">
-        <v>1.003269587730276</v>
+        <v>0.9980511289934004</v>
       </c>
       <c r="K9">
-        <v>1.014396326592198</v>
+        <v>1.008635017686802</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.996795654933599</v>
       </c>
       <c r="M9">
-        <v>1.008705507284202</v>
+        <v>0.9977207137418428</v>
       </c>
       <c r="N9">
-        <v>1.002170826947967</v>
+        <v>0.9994684760746353</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625968254743172</v>
+        <v>0.9587626491408276</v>
       </c>
       <c r="D10">
-        <v>0.9901814126911042</v>
+        <v>0.986137064753031</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9710747351416905</v>
       </c>
       <c r="F10">
-        <v>0.9822193012789689</v>
+        <v>0.9709116309339161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032905971782915</v>
+        <v>1.030192272656997</v>
       </c>
       <c r="J10">
-        <v>0.9923772566445331</v>
+        <v>0.9887136112559906</v>
       </c>
       <c r="K10">
-        <v>1.004730236934347</v>
+        <v>1.000761212619608</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9859866500627165</v>
       </c>
       <c r="M10">
-        <v>0.9969171883299904</v>
+        <v>0.9858267260700196</v>
       </c>
       <c r="N10">
-        <v>0.9943385626375209</v>
+        <v>0.99011769799101</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9560734150025499</v>
+        <v>0.9530028433900435</v>
       </c>
       <c r="D11">
-        <v>0.9850985197407892</v>
+        <v>0.981909143642878</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9654835295556856</v>
       </c>
       <c r="F11">
-        <v>0.9761482979911951</v>
+        <v>0.9648184455196026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030467961223077</v>
+        <v>1.028701671291954</v>
       </c>
       <c r="J11">
-        <v>0.987395073296189</v>
+        <v>0.9844704410932982</v>
       </c>
       <c r="K11">
-        <v>1.000307035969654</v>
+        <v>0.9971804859489495</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9810871141920381</v>
       </c>
       <c r="M11">
-        <v>0.9915344900367804</v>
+        <v>0.9804357976208831</v>
       </c>
       <c r="N11">
-        <v>0.9907503437724606</v>
+        <v>0.9858685020399888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9535931451712536</v>
+        <v>0.9508193100595045</v>
       </c>
       <c r="D12">
-        <v>0.9831675873259192</v>
+        <v>0.9803079102581436</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9633666191672944</v>
       </c>
       <c r="F12">
-        <v>0.9738426479688143</v>
+        <v>0.9625110884384408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029538505190923</v>
+        <v>1.028134542909534</v>
       </c>
       <c r="J12">
-        <v>0.9855001964015505</v>
+        <v>0.9828614598519364</v>
       </c>
       <c r="K12">
-        <v>0.9986245344904989</v>
+        <v>0.9958223604871792</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.979230999466855</v>
       </c>
       <c r="M12">
-        <v>0.9894887458081222</v>
+        <v>0.978393572788636</v>
       </c>
       <c r="N12">
-        <v>0.9893848014882932</v>
+        <v>0.9842572358607113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9541278633092679</v>
+        <v>0.9512897505334867</v>
       </c>
       <c r="D13">
-        <v>0.9835837957405807</v>
+        <v>0.980652819699257</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9638225826877365</v>
       </c>
       <c r="F13">
-        <v>0.9743395979583915</v>
+        <v>0.9630080909611141</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029738995494455</v>
+        <v>1.028256820391795</v>
       </c>
       <c r="J13">
-        <v>0.9859087348492083</v>
+        <v>0.9832081294863559</v>
       </c>
       <c r="K13">
-        <v>0.9989872934096421</v>
+        <v>0.9961149950787059</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9796308386095907</v>
       </c>
       <c r="M13">
-        <v>0.9899297445213985</v>
+        <v>0.9788335014342452</v>
       </c>
       <c r="N13">
-        <v>0.9896792516444858</v>
+        <v>0.9846043978057755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955869598810313</v>
+        <v>0.9528232762405344</v>
       </c>
       <c r="D14">
-        <v>0.9849398104446221</v>
+        <v>0.9817774297969801</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.965309386072644</v>
       </c>
       <c r="F14">
-        <v>0.9759587767804809</v>
+        <v>0.9646286435373068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030391632832101</v>
+        <v>1.028655073055319</v>
       </c>
       <c r="J14">
-        <v>0.9872393729699865</v>
+        <v>0.9843381307265582</v>
       </c>
       <c r="K14">
-        <v>1.000168790457935</v>
+        <v>0.9970688104977401</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9809344464275337</v>
       </c>
       <c r="M14">
-        <v>0.991366363115829</v>
+        <v>0.9802678212208159</v>
       </c>
       <c r="N14">
-        <v>0.9906381550865698</v>
+        <v>0.9857360037773515</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9569349713652249</v>
+        <v>0.9537621614742651</v>
       </c>
       <c r="D15">
-        <v>0.9857694718446216</v>
+        <v>0.9824661742684467</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9662200233926853</v>
       </c>
       <c r="F15">
-        <v>0.9769495351306446</v>
+        <v>0.9656211466740979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030790510393252</v>
+        <v>1.028898634456623</v>
       </c>
       <c r="J15">
-        <v>0.9880532145779839</v>
+        <v>0.9850299134964613</v>
       </c>
       <c r="K15">
-        <v>1.000891387561084</v>
+        <v>0.9976526905987784</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9817327382822877</v>
       </c>
       <c r="M15">
-        <v>0.9922452178544597</v>
+        <v>0.9811461629320332</v>
       </c>
       <c r="N15">
-        <v>0.9912245288586941</v>
+        <v>0.9864287689581365</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9630220845460242</v>
+        <v>0.959138957606225</v>
       </c>
       <c r="D16">
-        <v>0.9905129735074801</v>
+        <v>0.9864134907542901</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9714403975952309</v>
       </c>
       <c r="F16">
-        <v>0.9826154118981935</v>
+        <v>0.9713100718478942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033064553775964</v>
+        <v>1.030289370987088</v>
       </c>
       <c r="J16">
-        <v>0.9927019533193103</v>
+        <v>0.9889907700656028</v>
       </c>
       <c r="K16">
-        <v>1.005018469753991</v>
+        <v>1.000995051135532</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9863069285518253</v>
       </c>
       <c r="M16">
-        <v>0.9972681839947567</v>
+        <v>0.9861791337533401</v>
       </c>
       <c r="N16">
-        <v>0.9945722967583307</v>
+        <v>0.9903952503979229</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9667450263523362</v>
+        <v>0.962437581727803</v>
       </c>
       <c r="D17">
-        <v>0.993416673281583</v>
+        <v>0.9888375808977786</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.97464769563786</v>
       </c>
       <c r="F17">
-        <v>0.9860849618465182</v>
+        <v>0.9748046163647047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034450902030128</v>
+        <v>1.03113890019221</v>
       </c>
       <c r="J17">
-        <v>0.9955439786225678</v>
+        <v>0.9914198901545023</v>
       </c>
       <c r="K17">
-        <v>1.007541125157578</v>
+        <v>1.003044200016666</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9891153405509371</v>
       </c>
       <c r="M17">
-        <v>1.000341451804561</v>
+        <v>0.9892693204343366</v>
       </c>
       <c r="N17">
-        <v>0.9966175004697511</v>
+        <v>0.9928278201159728</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688840169086641</v>
+        <v>0.9643361612511819</v>
       </c>
       <c r="D18">
-        <v>0.9950857961312937</v>
+        <v>0.9902336077004974</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9764953623577001</v>
       </c>
       <c r="F18">
-        <v>0.9880798171019237</v>
+        <v>0.9768175522888218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03524576256002</v>
+        <v>1.031626501314724</v>
       </c>
       <c r="J18">
-        <v>0.997176371998857</v>
+        <v>0.9928176720719586</v>
       </c>
       <c r="K18">
-        <v>1.008989897732377</v>
+        <v>1.004223078515429</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9907325374701035</v>
       </c>
       <c r="M18">
-        <v>1.002107530378798</v>
+        <v>0.9910488143109552</v>
       </c>
       <c r="N18">
-        <v>0.997791682290868</v>
+        <v>0.9942275870440794</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9696080007025162</v>
+        <v>0.9649793230949396</v>
       </c>
       <c r="D19">
-        <v>0.9956508756306502</v>
+        <v>0.990706653737509</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9771215556693932</v>
       </c>
       <c r="F19">
-        <v>0.988755254495954</v>
+        <v>0.9774997230941624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035514513834882</v>
+        <v>1.031791446733337</v>
       </c>
       <c r="J19">
-        <v>0.9977288037814364</v>
+        <v>0.9932911228021222</v>
       </c>
       <c r="K19">
-        <v>1.009480156238802</v>
+        <v>1.004622337632747</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9912805069387761</v>
       </c>
       <c r="M19">
-        <v>1.002705348727019</v>
+        <v>0.9916517834787596</v>
       </c>
       <c r="N19">
-        <v>0.9981889553158529</v>
+        <v>0.9947017101285854</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9663489947348695</v>
+        <v>0.9620863303003023</v>
       </c>
       <c r="D20">
-        <v>0.993107701942311</v>
+        <v>0.9885793686373235</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9743059969414049</v>
       </c>
       <c r="F20">
-        <v>0.9857157326187291</v>
+        <v>0.9744323370297862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034303599189231</v>
+        <v>1.031048579298824</v>
       </c>
       <c r="J20">
-        <v>0.9952417035829028</v>
+        <v>0.9911612616469472</v>
       </c>
       <c r="K20">
-        <v>1.007272836519048</v>
+        <v>1.00282605339112</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.988816208833733</v>
       </c>
       <c r="M20">
-        <v>1.00001449164633</v>
+        <v>0.9889401720883132</v>
       </c>
       <c r="N20">
-        <v>0.9964000301661943</v>
+        <v>0.9925688243262717</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553583313259405</v>
+        <v>0.9523729429680887</v>
       </c>
       <c r="D21">
-        <v>0.9845417197322865</v>
+        <v>0.9814471330427237</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9648726984242727</v>
       </c>
       <c r="F21">
-        <v>0.9754834107043199</v>
+        <v>0.9641526836905309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030200125509749</v>
+        <v>1.028538177749213</v>
       </c>
       <c r="J21">
-        <v>0.9868487937810989</v>
+        <v>0.9840063058994869</v>
       </c>
       <c r="K21">
-        <v>0.9998219938749866</v>
+        <v>0.9967887313489631</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9805515946104758</v>
       </c>
       <c r="M21">
-        <v>0.9909446351074276</v>
+        <v>0.979846579941109</v>
       </c>
       <c r="N21">
-        <v>0.9903567129460695</v>
+        <v>0.9854037077209649</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9481135819896389</v>
+        <v>0.9460082802208046</v>
       </c>
       <c r="D22">
-        <v>0.9789050302235827</v>
+        <v>0.9767830720410514</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9587074465614444</v>
       </c>
       <c r="F22">
-        <v>0.9687540012815623</v>
+        <v>0.9574319733075994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027480658062597</v>
+        <v>1.026881348209026</v>
       </c>
       <c r="J22">
-        <v>0.981312994413795</v>
+        <v>0.9793157664333155</v>
       </c>
       <c r="K22">
-        <v>0.9949062944319637</v>
+        <v>0.9928289309190597</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9751438326185536</v>
       </c>
       <c r="M22">
-        <v>0.9849709433693801</v>
+        <v>0.9738966577832466</v>
       </c>
       <c r="N22">
-        <v>0.9863657896360609</v>
+        <v>0.9807065071507393</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.951988075123343</v>
+        <v>0.9494081989778935</v>
       </c>
       <c r="D23">
-        <v>0.9819185134196867</v>
+        <v>0.9792735867282133</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9619993339468428</v>
       </c>
       <c r="F23">
-        <v>0.9723513509949441</v>
+        <v>0.9610206791975374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028936337226403</v>
+        <v>1.027767475578721</v>
       </c>
       <c r="J23">
-        <v>0.9842738062441642</v>
+        <v>0.9818215576653876</v>
       </c>
       <c r="K23">
-        <v>0.9975355424087154</v>
+        <v>0.9949445027511211</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9780318549201654</v>
       </c>
       <c r="M23">
-        <v>0.9881651327737341</v>
+        <v>0.9770742026115498</v>
       </c>
       <c r="N23">
-        <v>0.9885007727723352</v>
+        <v>0.9832158568937791</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9665280444991527</v>
+        <v>0.9622451240602539</v>
       </c>
       <c r="D24">
-        <v>0.9932473883676128</v>
+        <v>0.9886960987784601</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.97446046697408</v>
       </c>
       <c r="F24">
-        <v>0.9858826602716607</v>
+        <v>0.9746006321432644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03437020140479</v>
+        <v>1.031089415807168</v>
       </c>
       <c r="J24">
-        <v>0.9953783665626541</v>
+        <v>0.9912781834983866</v>
       </c>
       <c r="K24">
-        <v>1.007394134319374</v>
+        <v>1.002924674830586</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9889514379322421</v>
       </c>
       <c r="M24">
-        <v>1.000162312444705</v>
+        <v>0.9890889707422059</v>
       </c>
       <c r="N24">
-        <v>0.9964983533488271</v>
+        <v>0.9926859122201511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821379897087074</v>
+        <v>0.9761531020583231</v>
       </c>
       <c r="D25">
-        <v>1.005440456471068</v>
+        <v>0.9989346057633557</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9880240874540887</v>
       </c>
       <c r="F25">
-        <v>1.000464132709701</v>
+        <v>0.9893742285965312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04014069860465</v>
+        <v>1.034636384386957</v>
       </c>
       <c r="J25">
-        <v>1.007281805805312</v>
+        <v>1.001510551780781</v>
       </c>
       <c r="K25">
-        <v>1.017954899371612</v>
+        <v>1.0115494831496</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.000811203177346</v>
       </c>
       <c r="M25">
-        <v>1.013055247885685</v>
+        <v>1.00213976641362</v>
       </c>
       <c r="N25">
-        <v>1.005050915517158</v>
+        <v>1.002932811639176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865708318109762</v>
+        <v>1.006994965112717</v>
       </c>
       <c r="D2">
-        <v>1.00661998104074</v>
+        <v>1.023160013268948</v>
       </c>
       <c r="E2">
-        <v>0.9982322966709528</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.000488299756932</v>
+        <v>1.01201484897206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037248119007591</v>
+        <v>1.044224242795403</v>
       </c>
       <c r="J2">
-        <v>1.009160762791249</v>
+        <v>1.028968452071018</v>
       </c>
       <c r="K2">
-        <v>1.017987853054908</v>
+        <v>1.034305852793296</v>
       </c>
       <c r="L2">
-        <v>1.009716313468147</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.011940835977668</v>
+        <v>1.023309297615106</v>
       </c>
       <c r="N2">
-        <v>1.01059388682677</v>
+        <v>1.03042970529729</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9937936405585774</v>
+        <v>1.010964193884579</v>
       </c>
       <c r="D3">
-        <v>1.01195460935669</v>
+        <v>1.026062035209727</v>
       </c>
       <c r="E3">
-        <v>1.005337194131159</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.008221500364386</v>
+        <v>1.016845302146646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039031259503989</v>
+        <v>1.045389388207154</v>
       </c>
       <c r="J3">
-        <v>1.014454939086459</v>
+        <v>1.031160361857766</v>
       </c>
       <c r="K3">
-        <v>1.022436780069379</v>
+        <v>1.03637196314584</v>
       </c>
       <c r="L3">
-        <v>1.015902237025608</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.018750255334893</v>
+        <v>1.02726708739959</v>
       </c>
       <c r="N3">
-        <v>1.01589558145957</v>
+        <v>1.032624727847351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9983235766850871</v>
+        <v>1.013481787650522</v>
       </c>
       <c r="D4">
-        <v>1.015302283707695</v>
+        <v>1.027905140088012</v>
       </c>
       <c r="E4">
-        <v>1.009805677460264</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.01308430137824</v>
+        <v>1.019911307226608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04013633722458</v>
+        <v>1.046119606866556</v>
       </c>
       <c r="J4">
-        <v>1.017770262973958</v>
+        <v>1.03254680395459</v>
       </c>
       <c r="K4">
-        <v>1.025219466167179</v>
+        <v>1.037678047792057</v>
       </c>
       <c r="L4">
-        <v>1.019787179802045</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.02302733419707</v>
+        <v>1.029775216013203</v>
       </c>
       <c r="N4">
-        <v>1.019215613487261</v>
+        <v>1.034013138850979</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000195473266211</v>
+        <v>1.014528423638848</v>
       </c>
       <c r="D5">
-        <v>1.01668597809437</v>
+        <v>1.028671912003464</v>
       </c>
       <c r="E5">
-        <v>1.011655161934872</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.015096812307625</v>
+        <v>1.021186498889031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040589735613161</v>
+        <v>1.046421038796852</v>
       </c>
       <c r="J5">
-        <v>1.019138974966734</v>
+        <v>1.03312224471903</v>
       </c>
       <c r="K5">
-        <v>1.02636744608643</v>
+        <v>1.038219938873462</v>
       </c>
       <c r="L5">
-        <v>1.021393800878686</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.024796264332194</v>
+        <v>1.030817409927262</v>
       </c>
       <c r="N5">
-        <v>1.020586269208061</v>
+        <v>1.034589396807308</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000507920436619</v>
+        <v>1.014703479851996</v>
       </c>
       <c r="D6">
-        <v>1.016916953672158</v>
+        <v>1.028800189886337</v>
       </c>
       <c r="E6">
-        <v>1.011964043152818</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.015432910499648</v>
+        <v>1.0213998170195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04066522131274</v>
+        <v>1.046471328460216</v>
       </c>
       <c r="J6">
-        <v>1.019367356492907</v>
+        <v>1.033218434600432</v>
       </c>
       <c r="K6">
-        <v>1.026558946308167</v>
+        <v>1.038310508771383</v>
       </c>
       <c r="L6">
-        <v>1.021662042852702</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.025091613926315</v>
+        <v>1.030991694011274</v>
       </c>
       <c r="N6">
-        <v>1.020814975062197</v>
+        <v>1.034685723289376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9983487143061005</v>
+        <v>1.013495818555657</v>
       </c>
       <c r="D7">
-        <v>1.015320864091017</v>
+        <v>1.027915417131982</v>
       </c>
       <c r="E7">
-        <v>1.009830502324612</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.013111315162902</v>
+        <v>1.019928399789213</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04014243885263</v>
+        <v>1.046123656270224</v>
       </c>
       <c r="J7">
-        <v>1.017788648473418</v>
+        <v>1.032554521904055</v>
       </c>
       <c r="K7">
-        <v>1.025234889997415</v>
+        <v>1.037685316557156</v>
       </c>
       <c r="L7">
-        <v>1.019808750110647</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.023051083083313</v>
+        <v>1.029789189342798</v>
       </c>
       <c r="N7">
-        <v>1.01923402509624</v>
+        <v>1.034020867760818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9890427748748443</v>
+        <v>1.008347137448717</v>
       </c>
       <c r="D8">
-        <v>1.00844521835445</v>
+        <v>1.024148095854132</v>
       </c>
       <c r="E8">
-        <v>1.000661234476935</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.003132225839243</v>
+        <v>1.013659987394227</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03786113918195</v>
+        <v>1.044622994633268</v>
       </c>
       <c r="J8">
-        <v>1.010973668861143</v>
+        <v>1.029715947012827</v>
       </c>
       <c r="K8">
-        <v>1.019511996173993</v>
+        <v>1.035010606627931</v>
       </c>
       <c r="L8">
-        <v>1.011832256365118</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.014269935642573</v>
+        <v>1.024658050752612</v>
       </c>
       <c r="N8">
-        <v>1.012409367431226</v>
+        <v>1.031178261767655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9714482201095878</v>
+        <v>0.9988671238340925</v>
       </c>
       <c r="D9">
-        <v>0.995467981185245</v>
+        <v>1.017232623034321</v>
       </c>
       <c r="E9">
-        <v>0.9834278594193846</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9843688364835197</v>
+        <v>1.002133058828313</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033443472759902</v>
+        <v>1.041791173583851</v>
       </c>
       <c r="J9">
-        <v>0.9980511289934004</v>
+        <v>1.024459950402125</v>
       </c>
       <c r="K9">
-        <v>1.008635017686802</v>
+        <v>1.030052165916059</v>
       </c>
       <c r="L9">
-        <v>0.996795654933599</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9977207137418428</v>
+        <v>1.015191623180977</v>
       </c>
       <c r="N9">
-        <v>0.9994684760746353</v>
+        <v>1.025914801038894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587626491408276</v>
+        <v>0.9922456342204831</v>
       </c>
       <c r="D10">
-        <v>0.986137064753031</v>
+        <v>1.012419463246434</v>
       </c>
       <c r="E10">
-        <v>0.9710747351416905</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9709116309339161</v>
+        <v>0.9940883741307752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030192272656997</v>
+        <v>1.039768502433312</v>
       </c>
       <c r="J10">
-        <v>0.9887136112559906</v>
+        <v>1.020770324787395</v>
       </c>
       <c r="K10">
-        <v>1.000761212619608</v>
+        <v>1.026568043519887</v>
       </c>
       <c r="L10">
-        <v>0.9859866500627165</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9858267260700196</v>
+        <v>1.008565191485392</v>
       </c>
       <c r="N10">
-        <v>0.99011769799101</v>
+        <v>1.022219935732587</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9530028433900435</v>
+        <v>0.9893003018065128</v>
       </c>
       <c r="D11">
-        <v>0.981909143642878</v>
+        <v>1.010283204093217</v>
       </c>
       <c r="E11">
-        <v>0.9654835295556856</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9648184455196026</v>
+        <v>0.9905106834867788</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028701671291954</v>
+        <v>1.038858578499306</v>
       </c>
       <c r="J11">
-        <v>0.9844704410932982</v>
+        <v>1.019125076013358</v>
       </c>
       <c r="K11">
-        <v>0.9971804859489495</v>
+        <v>1.025013765310296</v>
       </c>
       <c r="L11">
-        <v>0.9810871141920381</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9804357976208831</v>
+        <v>1.005613800977821</v>
       </c>
       <c r="N11">
-        <v>0.9858685020399888</v>
+        <v>1.020572350516577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9508193100595045</v>
+        <v>0.9881939185320771</v>
       </c>
       <c r="D12">
-        <v>0.9803079102581436</v>
+        <v>1.009481504918216</v>
       </c>
       <c r="E12">
-        <v>0.9633666191672944</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9625110884384408</v>
+        <v>0.9891667891095628</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028134542909534</v>
+        <v>1.038515275699538</v>
       </c>
       <c r="J12">
-        <v>0.9828614598519364</v>
+        <v>1.018506475833394</v>
       </c>
       <c r="K12">
-        <v>0.9958223604871792</v>
+        <v>1.024429281091007</v>
       </c>
       <c r="L12">
-        <v>0.979230999466855</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.978393572788636</v>
+        <v>1.004504521564931</v>
       </c>
       <c r="N12">
-        <v>0.9842572358607113</v>
+        <v>1.019952871853403</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9512897505334867</v>
+        <v>0.988431810856048</v>
       </c>
       <c r="D13">
-        <v>0.980652819699257</v>
+        <v>1.009653849193955</v>
       </c>
       <c r="E13">
-        <v>0.9638225826877365</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9630080909611141</v>
+        <v>0.9894557506473014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028256820391795</v>
+        <v>1.038589159164518</v>
       </c>
       <c r="J13">
-        <v>0.9832081294863559</v>
+        <v>1.018639511730455</v>
       </c>
       <c r="K13">
-        <v>0.9961149950787059</v>
+        <v>1.024554983816628</v>
       </c>
       <c r="L13">
-        <v>0.9796308386095907</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9788335014342452</v>
+        <v>1.004743065332945</v>
       </c>
       <c r="N13">
-        <v>0.9846043978057755</v>
+        <v>1.020086096676698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9528232762405344</v>
+        <v>0.9892091035400148</v>
       </c>
       <c r="D14">
-        <v>0.9817774297969801</v>
+        <v>1.010217104811378</v>
       </c>
       <c r="E14">
-        <v>0.965309386072644</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9646286435373068</v>
+        <v>0.9903999072776059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028655073055319</v>
+        <v>1.038830310608354</v>
       </c>
       <c r="J14">
-        <v>0.9843381307265582</v>
+        <v>1.019074096922713</v>
       </c>
       <c r="K14">
-        <v>0.9970688104977401</v>
+        <v>1.024965599453603</v>
       </c>
       <c r="L14">
-        <v>0.9809344464275337</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9802678212208159</v>
+        <v>1.005522376843848</v>
       </c>
       <c r="N14">
-        <v>0.9857360037773515</v>
+        <v>1.020521299029776</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9537621614742651</v>
+        <v>0.9896863630524992</v>
       </c>
       <c r="D15">
-        <v>0.9824661742684467</v>
+        <v>1.010563047617055</v>
       </c>
       <c r="E15">
-        <v>0.9662200233926853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9656211466740979</v>
+        <v>0.9909796228924348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028898634456623</v>
+        <v>1.038978181446204</v>
       </c>
       <c r="J15">
-        <v>0.9850299134964613</v>
+        <v>1.019340857656002</v>
       </c>
       <c r="K15">
-        <v>0.9976526905987784</v>
+        <v>1.025217635717878</v>
       </c>
       <c r="L15">
-        <v>0.9817327382822877</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9811461629320332</v>
+        <v>1.006000792822027</v>
       </c>
       <c r="N15">
-        <v>0.9864287689581365</v>
+        <v>1.020788438593904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.959138957606225</v>
+        <v>0.9924394078877491</v>
       </c>
       <c r="D16">
-        <v>0.9864134907542901</v>
+        <v>1.012560110755727</v>
       </c>
       <c r="E16">
-        <v>0.9714403975952309</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9713100718478942</v>
+        <v>0.9943237588520804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030289370987088</v>
+        <v>1.039828156477513</v>
       </c>
       <c r="J16">
-        <v>0.9889907700656028</v>
+        <v>1.020878483827969</v>
       </c>
       <c r="K16">
-        <v>1.000995051135532</v>
+        <v>1.026670209256176</v>
       </c>
       <c r="L16">
-        <v>0.9863069285518253</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9861791337533401</v>
+        <v>1.008759279905895</v>
       </c>
       <c r="N16">
-        <v>0.9903952503979229</v>
+        <v>1.022328248371403</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.962437581727803</v>
+        <v>0.9941449704742427</v>
       </c>
       <c r="D17">
-        <v>0.9888375808977786</v>
+        <v>1.013798608429235</v>
       </c>
       <c r="E17">
-        <v>0.97464769563786</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9748046163647047</v>
+        <v>0.9963956455553572</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03113890019221</v>
+        <v>1.040352062304149</v>
       </c>
       <c r="J17">
-        <v>0.9914198901545023</v>
+        <v>1.021830023224914</v>
       </c>
       <c r="K17">
-        <v>1.003044200016666</v>
+        <v>1.027568947659394</v>
       </c>
       <c r="L17">
-        <v>0.9891153405509371</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9892693204343366</v>
+        <v>1.010467168689875</v>
       </c>
       <c r="N17">
-        <v>0.9928278201159728</v>
+        <v>1.023281139063435</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9643361612511819</v>
+        <v>0.9951322959289479</v>
       </c>
       <c r="D18">
-        <v>0.9902336077004974</v>
+        <v>1.014515999359297</v>
       </c>
       <c r="E18">
-        <v>0.9764953623577001</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9768175522888218</v>
+        <v>0.9975951024717808</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031626501314724</v>
+        <v>1.040654371932082</v>
       </c>
       <c r="J18">
-        <v>0.9928176720719586</v>
+        <v>1.022380469007534</v>
       </c>
       <c r="K18">
-        <v>1.004223078515429</v>
+        <v>1.028088785242953</v>
       </c>
       <c r="L18">
-        <v>0.9907325374701035</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9910488143109552</v>
+        <v>1.011455477102415</v>
       </c>
       <c r="N18">
-        <v>0.9942275870440794</v>
+        <v>1.023832366542204</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9649793230949396</v>
+        <v>0.9954676940547015</v>
       </c>
       <c r="D19">
-        <v>0.990706653737509</v>
+        <v>1.014759773113776</v>
       </c>
       <c r="E19">
-        <v>0.9771215556693932</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9774997230941624</v>
+        <v>0.998002576837711</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031791446733337</v>
+        <v>1.04075690176242</v>
       </c>
       <c r="J19">
-        <v>0.9932911228021222</v>
+        <v>1.022567391061851</v>
       </c>
       <c r="K19">
-        <v>1.004622337632747</v>
+        <v>1.02826530208384</v>
       </c>
       <c r="L19">
-        <v>0.9912805069387761</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.9916517834787596</v>
+        <v>1.011791148618901</v>
       </c>
       <c r="N19">
-        <v>0.9947017101285854</v>
+        <v>1.024019554047278</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9620863303003023</v>
+        <v>0.9939627598218473</v>
       </c>
       <c r="D20">
-        <v>0.9885793686373235</v>
+        <v>1.013666249484981</v>
       </c>
       <c r="E20">
-        <v>0.9743059969414049</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9744323370297862</v>
+        <v>0.9961742924298382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031048579298824</v>
+        <v>1.040296192359075</v>
       </c>
       <c r="J20">
-        <v>0.9911612616469472</v>
+        <v>1.021728407156983</v>
       </c>
       <c r="K20">
-        <v>1.00282605339112</v>
+        <v>1.027472976824844</v>
       </c>
       <c r="L20">
-        <v>0.988816208833733</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9889401720883132</v>
+        <v>1.010284747524753</v>
       </c>
       <c r="N20">
-        <v>0.9925688243262717</v>
+        <v>1.023179378689032</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523729429680887</v>
+        <v>0.9889805563950399</v>
       </c>
       <c r="D21">
-        <v>0.9814471330427237</v>
+        <v>1.010051469414592</v>
       </c>
       <c r="E21">
-        <v>0.9648726984242727</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9641526836905309</v>
+        <v>0.9901222970599962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028538177749213</v>
+        <v>1.03875944590762</v>
       </c>
       <c r="J21">
-        <v>0.9840063058994869</v>
+        <v>1.018946331684313</v>
       </c>
       <c r="K21">
-        <v>0.9967887313489631</v>
+        <v>1.02484488344129</v>
       </c>
       <c r="L21">
-        <v>0.9805515946104758</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.979846579941109</v>
+        <v>1.005293253524136</v>
       </c>
       <c r="N21">
-        <v>0.9854037077209649</v>
+        <v>1.020393352350082</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9460082802208046</v>
+        <v>0.9857762290715237</v>
       </c>
       <c r="D22">
-        <v>0.9767830720410514</v>
+        <v>1.007731087404647</v>
       </c>
       <c r="E22">
-        <v>0.9587074465614444</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9574319733075994</v>
+        <v>0.9862300466396522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026881348209026</v>
+        <v>1.037762366601225</v>
       </c>
       <c r="J22">
-        <v>0.9793157664333155</v>
+        <v>1.017153665988134</v>
       </c>
       <c r="K22">
-        <v>0.9928289309190597</v>
+        <v>1.023150930126983</v>
       </c>
       <c r="L22">
-        <v>0.9751438326185536</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9738966577832466</v>
+        <v>1.002079315059368</v>
       </c>
       <c r="N22">
-        <v>0.9807065071507393</v>
+        <v>1.018598140862994</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9494081989778935</v>
+        <v>0.9874819255066227</v>
       </c>
       <c r="D23">
-        <v>0.9792735867282133</v>
+        <v>1.008965808594553</v>
       </c>
       <c r="E23">
-        <v>0.9619993339468428</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9610206791975374</v>
+        <v>0.9883019477428262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027767475578721</v>
+        <v>1.038293931297195</v>
       </c>
       <c r="J23">
-        <v>0.9818215576653876</v>
+        <v>1.018108227168508</v>
       </c>
       <c r="K23">
-        <v>0.9949445027511211</v>
+        <v>1.024052972586368</v>
       </c>
       <c r="L23">
-        <v>0.9780318549201654</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9770742026115498</v>
+        <v>1.003790484591829</v>
       </c>
       <c r="N23">
-        <v>0.9832158568937791</v>
+        <v>1.019554057629733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9622451240602539</v>
+        <v>0.9940451161065719</v>
       </c>
       <c r="D24">
-        <v>0.9886960987784601</v>
+        <v>1.013726072231586</v>
       </c>
       <c r="E24">
-        <v>0.97446046697408</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9746006321432644</v>
+        <v>0.9962743402547345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031089415807168</v>
+        <v>1.04032144769134</v>
       </c>
       <c r="J24">
-        <v>0.9912781834983866</v>
+        <v>1.021774337186229</v>
       </c>
       <c r="K24">
-        <v>1.002924674830586</v>
+        <v>1.027516355431797</v>
       </c>
       <c r="L24">
-        <v>0.9889514379322421</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9890889707422059</v>
+        <v>1.010367200082155</v>
       </c>
       <c r="N24">
-        <v>0.9926859122201511</v>
+        <v>1.023225373944188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9761531020583231</v>
+        <v>1.001368946403749</v>
       </c>
       <c r="D25">
-        <v>0.9989346057633557</v>
+        <v>1.019054911534766</v>
       </c>
       <c r="E25">
-        <v>0.9880240874540887</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9893742285965312</v>
+        <v>1.005173686256561</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034636384386957</v>
+        <v>1.042546349529466</v>
       </c>
       <c r="J25">
-        <v>1.001510551780781</v>
+        <v>1.025850327706989</v>
       </c>
       <c r="K25">
-        <v>1.0115494831496</v>
+        <v>1.031364454437561</v>
       </c>
       <c r="L25">
-        <v>1.000811203177346</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.00213976641362</v>
+        <v>1.017692214826887</v>
       </c>
       <c r="N25">
-        <v>1.002932811639176</v>
+        <v>1.02730715283901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006994965112717</v>
+        <v>1.030481359198216</v>
       </c>
       <c r="D2">
-        <v>1.023160013268948</v>
+        <v>1.03517641479953</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.01201484897206</v>
+        <v>1.040590344860708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044224242795403</v>
+        <v>1.036205589407848</v>
       </c>
       <c r="J2">
-        <v>1.028968452071018</v>
+        <v>1.035622365164361</v>
       </c>
       <c r="K2">
-        <v>1.034305852793296</v>
+        <v>1.037973769952293</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.023309297615106</v>
+        <v>1.04337226164183</v>
       </c>
       <c r="N2">
-        <v>1.03042970529729</v>
+        <v>1.037093067710457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010964193884579</v>
+        <v>1.031309086804573</v>
       </c>
       <c r="D3">
-        <v>1.026062035209727</v>
+        <v>1.03580093504479</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.016845302146646</v>
+        <v>1.041678286629802</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045389388207154</v>
+        <v>1.036400608681015</v>
       </c>
       <c r="J3">
-        <v>1.031160361857766</v>
+        <v>1.036092186306957</v>
       </c>
       <c r="K3">
-        <v>1.03637196314584</v>
+        <v>1.038408122685384</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.02726708739959</v>
+        <v>1.044269928187567</v>
       </c>
       <c r="N3">
-        <v>1.032624727847351</v>
+        <v>1.037563556052948</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013481787650522</v>
+        <v>1.031845007539789</v>
       </c>
       <c r="D4">
-        <v>1.027905140088012</v>
+        <v>1.036205290973253</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.019911307226608</v>
+        <v>1.04238301040096</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046119606866556</v>
+        <v>1.036525793041142</v>
       </c>
       <c r="J4">
-        <v>1.03254680395459</v>
+        <v>1.036395859145871</v>
       </c>
       <c r="K4">
-        <v>1.037678047792057</v>
+        <v>1.038688736622173</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.029775216013203</v>
+        <v>1.044850939572726</v>
       </c>
       <c r="N4">
-        <v>1.034013138850979</v>
+        <v>1.037867660142124</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014528423638848</v>
+        <v>1.032070385288781</v>
       </c>
       <c r="D5">
-        <v>1.028671912003464</v>
+        <v>1.036375340483163</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.021186498889031</v>
+        <v>1.04267945575486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046421038796852</v>
+        <v>1.036578179126281</v>
       </c>
       <c r="J5">
-        <v>1.03312224471903</v>
+        <v>1.036523442567172</v>
       </c>
       <c r="K5">
-        <v>1.038219938873462</v>
+        <v>1.038806600069114</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.030817409927262</v>
+        <v>1.045095234594419</v>
       </c>
       <c r="N5">
-        <v>1.034589396807308</v>
+        <v>1.037995424746518</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014703479851996</v>
+        <v>1.032108231663358</v>
       </c>
       <c r="D6">
-        <v>1.028800189886337</v>
+        <v>1.036403895918776</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.0213998170195</v>
+        <v>1.042729240738318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046471328460216</v>
+        <v>1.036586960807683</v>
       </c>
       <c r="J6">
-        <v>1.033218434600432</v>
+        <v>1.036544859628504</v>
       </c>
       <c r="K6">
-        <v>1.038310508771383</v>
+        <v>1.038826383577338</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.030991694011274</v>
+        <v>1.045136255000984</v>
       </c>
       <c r="N6">
-        <v>1.034685723289376</v>
+        <v>1.038016872222534</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013495818555657</v>
+        <v>1.031848018748635</v>
       </c>
       <c r="D7">
-        <v>1.027915417131982</v>
+        <v>1.036207562955984</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.019928399789213</v>
+        <v>1.042386970813937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046123656270224</v>
+        <v>1.036526493975868</v>
       </c>
       <c r="J7">
-        <v>1.032554521904055</v>
+        <v>1.036397564239845</v>
       </c>
       <c r="K7">
-        <v>1.037685316557156</v>
+        <v>1.038690311939639</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.029789189342798</v>
+        <v>1.044854203707004</v>
       </c>
       <c r="N7">
-        <v>1.034020867760818</v>
+        <v>1.037869367657527</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008347137448717</v>
+        <v>1.030761025423068</v>
       </c>
       <c r="D8">
-        <v>1.024148095854132</v>
+        <v>1.035387421782374</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.013659987394227</v>
+        <v>1.040957863591418</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044622994633268</v>
+        <v>1.036271705085888</v>
       </c>
       <c r="J8">
-        <v>1.029715947012827</v>
+        <v>1.035781211765831</v>
       </c>
       <c r="K8">
-        <v>1.035010606627931</v>
+        <v>1.038120652271623</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.024658050752612</v>
+        <v>1.043675598453534</v>
       </c>
       <c r="N8">
-        <v>1.031178261767655</v>
+        <v>1.037252139892304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9988671238340925</v>
+        <v>1.028848154874785</v>
       </c>
       <c r="D9">
-        <v>1.017232623034321</v>
+        <v>1.033944204482079</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.002133058828313</v>
+        <v>1.038445390426595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041791173583851</v>
+        <v>1.035815052707117</v>
       </c>
       <c r="J9">
-        <v>1.024459950402125</v>
+        <v>1.034692612748316</v>
       </c>
       <c r="K9">
-        <v>1.030052165916059</v>
+        <v>1.037113503145393</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.015191623180977</v>
+        <v>1.041600011607559</v>
       </c>
       <c r="N9">
-        <v>1.025914801038894</v>
+        <v>1.03616199493932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9922456342204831</v>
+        <v>1.027574698292978</v>
       </c>
       <c r="D10">
-        <v>1.012419463246434</v>
+        <v>1.032983475401437</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9940883741307752</v>
+        <v>1.036774346200139</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039768502433312</v>
+        <v>1.035505485202581</v>
       </c>
       <c r="J10">
-        <v>1.020770324787395</v>
+        <v>1.033965250597909</v>
       </c>
       <c r="K10">
-        <v>1.026568043519887</v>
+        <v>1.036439886397456</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.008565191485392</v>
+        <v>1.040217180406309</v>
       </c>
       <c r="N10">
-        <v>1.022219935732587</v>
+        <v>1.03543359985123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9893003018065128</v>
+        <v>1.027023717878347</v>
       </c>
       <c r="D11">
-        <v>1.010283204093217</v>
+        <v>1.032567823172718</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9905106834867788</v>
+        <v>1.036051707599336</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038858578499306</v>
+        <v>1.035370228363649</v>
       </c>
       <c r="J11">
-        <v>1.019125076013358</v>
+        <v>1.033649919962135</v>
       </c>
       <c r="K11">
-        <v>1.025013765310296</v>
+        <v>1.036147697187991</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.005613800977821</v>
+        <v>1.039618619476584</v>
       </c>
       <c r="N11">
-        <v>1.020572350516577</v>
+        <v>1.035117821409784</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9881939185320771</v>
+        <v>1.026819125756208</v>
       </c>
       <c r="D12">
-        <v>1.009481504918216</v>
+        <v>1.032413485444059</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9891667891095628</v>
+        <v>1.035783428426947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038515275699538</v>
+        <v>1.035319806364773</v>
       </c>
       <c r="J12">
-        <v>1.018506475833394</v>
+        <v>1.033532736246816</v>
       </c>
       <c r="K12">
-        <v>1.024429281091007</v>
+        <v>1.036039089645341</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.004504521564931</v>
+        <v>1.039396320069213</v>
       </c>
       <c r="N12">
-        <v>1.019952871853403</v>
+        <v>1.035000471280148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.988431810856048</v>
+        <v>1.026863008430249</v>
       </c>
       <c r="D13">
-        <v>1.009653849193955</v>
+        <v>1.032446588942987</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9894557506473014</v>
+        <v>1.035840968831291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038589159164518</v>
+        <v>1.035330630263621</v>
       </c>
       <c r="J13">
-        <v>1.018639511730455</v>
+        <v>1.033557875065376</v>
       </c>
       <c r="K13">
-        <v>1.024554983816628</v>
+        <v>1.036062389731131</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.004743065332945</v>
+        <v>1.039444002553885</v>
       </c>
       <c r="N13">
-        <v>1.020086096676698</v>
+        <v>1.035025645798714</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9892091035400148</v>
+        <v>1.027006804865273</v>
       </c>
       <c r="D14">
-        <v>1.010217104811378</v>
+        <v>1.032555064457567</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9903999072776059</v>
+        <v>1.03602952868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038830310608354</v>
+        <v>1.035366064166833</v>
       </c>
       <c r="J14">
-        <v>1.019074096922713</v>
+        <v>1.033640234654243</v>
       </c>
       <c r="K14">
-        <v>1.024965599453603</v>
+        <v>1.036138721188412</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.005522376843848</v>
+        <v>1.039600243466144</v>
       </c>
       <c r="N14">
-        <v>1.020521299029776</v>
+        <v>1.035108122347645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9896863630524992</v>
+        <v>1.027095411448276</v>
       </c>
       <c r="D15">
-        <v>1.010563047617055</v>
+        <v>1.032621907003568</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9909796228924348</v>
+        <v>1.036145725324348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038978181446204</v>
+        <v>1.035387872117449</v>
       </c>
       <c r="J15">
-        <v>1.019340857656002</v>
+        <v>1.033690971738324</v>
       </c>
       <c r="K15">
-        <v>1.025217635717878</v>
+        <v>1.036185741548187</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.006000792822027</v>
+        <v>1.039696513009725</v>
       </c>
       <c r="N15">
-        <v>1.020788438593904</v>
+        <v>1.035158931484204</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9924394078877491</v>
+        <v>1.027611274311754</v>
       </c>
       <c r="D16">
-        <v>1.012560110755727</v>
+        <v>1.033011068365755</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9943237588520804</v>
+        <v>1.036822325083078</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039828156477513</v>
+        <v>1.035514436260401</v>
       </c>
       <c r="J16">
-        <v>1.020878483827969</v>
+        <v>1.0339861701674</v>
       </c>
       <c r="K16">
-        <v>1.026670209256176</v>
+        <v>1.036459267397616</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.008759279905895</v>
+        <v>1.040256909486462</v>
       </c>
       <c r="N16">
-        <v>1.022328248371403</v>
+        <v>1.03545454912891</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9941449704742427</v>
+        <v>1.027934978702762</v>
       </c>
       <c r="D17">
-        <v>1.013798608429235</v>
+        <v>1.033255273692014</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9963956455553572</v>
+        <v>1.037246988849393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040352062304149</v>
+        <v>1.035593502460303</v>
       </c>
       <c r="J17">
-        <v>1.021830023224914</v>
+        <v>1.034171239782192</v>
       </c>
       <c r="K17">
-        <v>1.027568947659394</v>
+        <v>1.036630707423074</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.010467168689875</v>
+        <v>1.040608489139238</v>
       </c>
       <c r="N17">
-        <v>1.023281139063435</v>
+        <v>1.035639881563782</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9951322959289479</v>
+        <v>1.028123831856036</v>
       </c>
       <c r="D18">
-        <v>1.014515999359297</v>
+        <v>1.033397748180236</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9975951024717808</v>
+        <v>1.037494778174081</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040654371932082</v>
+        <v>1.035639503455691</v>
       </c>
       <c r="J18">
-        <v>1.022380469007534</v>
+        <v>1.034279151221977</v>
       </c>
       <c r="K18">
-        <v>1.028088785242953</v>
+        <v>1.036730656341145</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.011455477102415</v>
+        <v>1.040813580219633</v>
       </c>
       <c r="N18">
-        <v>1.023832366542204</v>
+        <v>1.035747946250189</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9954676940547015</v>
+        <v>1.028188232963482</v>
       </c>
       <c r="D19">
-        <v>1.014759773113776</v>
+        <v>1.033446333962464</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.998002576837711</v>
+        <v>1.037579283201482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04075690176242</v>
+        <v>1.035655168748708</v>
       </c>
       <c r="J19">
-        <v>1.022567391061851</v>
+        <v>1.034315940009332</v>
       </c>
       <c r="K19">
-        <v>1.02826530208384</v>
+        <v>1.036764727973452</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.011791148618901</v>
+        <v>1.040883514456696</v>
       </c>
       <c r="N19">
-        <v>1.024019554047278</v>
+        <v>1.035784787281842</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9939627598218473</v>
+        <v>1.027900243946582</v>
       </c>
       <c r="D20">
-        <v>1.013666249484981</v>
+        <v>1.033229069280183</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9961742924298382</v>
+        <v>1.037201417119026</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040296192359075</v>
+        <v>1.035585031501548</v>
       </c>
       <c r="J20">
-        <v>1.021728407156983</v>
+        <v>1.034151387336399</v>
       </c>
       <c r="K20">
-        <v>1.027472976824844</v>
+        <v>1.036612318607468</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.010284747524753</v>
+        <v>1.040570765832849</v>
       </c>
       <c r="N20">
-        <v>1.023179378689032</v>
+        <v>1.035620000925239</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9889805563950399</v>
+        <v>1.026964458552582</v>
       </c>
       <c r="D21">
-        <v>1.010051469414592</v>
+        <v>1.03252311961937</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9901222970599962</v>
+        <v>1.035973998607955</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03875944590762</v>
+        <v>1.035355634774057</v>
       </c>
       <c r="J21">
-        <v>1.018946331684313</v>
+        <v>1.033615983343198</v>
       </c>
       <c r="K21">
-        <v>1.02484488344129</v>
+        <v>1.036116245552064</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.005293253524136</v>
+        <v>1.039554233502103</v>
       </c>
       <c r="N21">
-        <v>1.020393352350082</v>
+        <v>1.035083836596955</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9857762290715237</v>
+        <v>1.026376478702453</v>
       </c>
       <c r="D22">
-        <v>1.007731087404647</v>
+        <v>1.032079574290105</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9862300466396522</v>
+        <v>1.035203087824089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037762366601225</v>
+        <v>1.035210353597751</v>
       </c>
       <c r="J22">
-        <v>1.017153665988134</v>
+        <v>1.033279030768876</v>
       </c>
       <c r="K22">
-        <v>1.023150930126983</v>
+        <v>1.035803908620484</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.002079315059368</v>
+        <v>1.038915289197115</v>
       </c>
       <c r="N22">
-        <v>1.018598140862994</v>
+        <v>1.03474640551133</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9874819255066227</v>
+        <v>1.026688140987544</v>
       </c>
       <c r="D23">
-        <v>1.008965808594553</v>
+        <v>1.032314675882199</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9883019477428262</v>
+        <v>1.035611684682214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038293931297195</v>
+        <v>1.035287469287445</v>
       </c>
       <c r="J23">
-        <v>1.018108227168508</v>
+        <v>1.0334576859986</v>
       </c>
       <c r="K23">
-        <v>1.024052972586368</v>
+        <v>1.035969525352913</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.003790484591829</v>
+        <v>1.039253987456781</v>
       </c>
       <c r="N23">
-        <v>1.019554057629733</v>
+        <v>1.034925314451972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9940451161065719</v>
+        <v>1.027915938958542</v>
       </c>
       <c r="D24">
-        <v>1.013726072231586</v>
+        <v>1.033240909822122</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9962743402547345</v>
+        <v>1.03722200874384</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04032144769134</v>
+        <v>1.035588859524682</v>
       </c>
       <c r="J24">
-        <v>1.021774337186229</v>
+        <v>1.034160357915094</v>
       </c>
       <c r="K24">
-        <v>1.027516355431797</v>
+        <v>1.036620627873664</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.010367200082155</v>
+        <v>1.040587811307513</v>
       </c>
       <c r="N24">
-        <v>1.023225373944188</v>
+        <v>1.035628984243185</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001368946403749</v>
+        <v>1.029342367724323</v>
       </c>
       <c r="D25">
-        <v>1.019054911534766</v>
+        <v>1.034317067570802</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.005173686256561</v>
+        <v>1.039094233887538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042546349529466</v>
+        <v>1.035934015310905</v>
       </c>
       <c r="J25">
-        <v>1.025850327706989</v>
+        <v>1.034974333010446</v>
       </c>
       <c r="K25">
-        <v>1.031364454437561</v>
+        <v>1.037374264594101</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.017692214826887</v>
+        <v>1.042136446192537</v>
       </c>
       <c r="N25">
-        <v>1.02730715283901</v>
+        <v>1.036444115276536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030481359198216</v>
+        <v>1.006994965112717</v>
       </c>
       <c r="D2">
-        <v>1.03517641479953</v>
+        <v>1.023160013268948</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.040590344860708</v>
+        <v>1.01201484897206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036205589407848</v>
+        <v>1.044224242795402</v>
       </c>
       <c r="J2">
-        <v>1.035622365164361</v>
+        <v>1.028968452071018</v>
       </c>
       <c r="K2">
-        <v>1.037973769952293</v>
+        <v>1.034305852793295</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04337226164183</v>
+        <v>1.023309297615106</v>
       </c>
       <c r="N2">
-        <v>1.037093067710457</v>
+        <v>1.030429705297289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031309086804573</v>
+        <v>1.01096419388458</v>
       </c>
       <c r="D3">
-        <v>1.03580093504479</v>
+        <v>1.026062035209728</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.041678286629802</v>
+        <v>1.016845302146647</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036400608681015</v>
+        <v>1.045389388207155</v>
       </c>
       <c r="J3">
-        <v>1.036092186306957</v>
+        <v>1.031160361857767</v>
       </c>
       <c r="K3">
-        <v>1.038408122685384</v>
+        <v>1.036371963145841</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.044269928187567</v>
+        <v>1.027267087399591</v>
       </c>
       <c r="N3">
-        <v>1.037563556052948</v>
+        <v>1.032624727847351</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031845007539789</v>
+        <v>1.013481787650522</v>
       </c>
       <c r="D4">
-        <v>1.036205290973253</v>
+        <v>1.027905140088012</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.04238301040096</v>
+        <v>1.019911307226608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036525793041142</v>
+        <v>1.046119606866556</v>
       </c>
       <c r="J4">
-        <v>1.036395859145871</v>
+        <v>1.03254680395459</v>
       </c>
       <c r="K4">
-        <v>1.038688736622173</v>
+        <v>1.037678047792057</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.044850939572726</v>
+        <v>1.029775216013203</v>
       </c>
       <c r="N4">
-        <v>1.037867660142124</v>
+        <v>1.034013138850979</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032070385288781</v>
+        <v>1.014528423638849</v>
       </c>
       <c r="D5">
-        <v>1.036375340483163</v>
+        <v>1.028671912003465</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.04267945575486</v>
+        <v>1.021186498889031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036578179126281</v>
+        <v>1.046421038796853</v>
       </c>
       <c r="J5">
-        <v>1.036523442567172</v>
+        <v>1.03312224471903</v>
       </c>
       <c r="K5">
-        <v>1.038806600069114</v>
+        <v>1.038219938873462</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045095234594419</v>
+        <v>1.030817409927262</v>
       </c>
       <c r="N5">
-        <v>1.037995424746518</v>
+        <v>1.034589396807309</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032108231663358</v>
+        <v>1.014703479851997</v>
       </c>
       <c r="D6">
-        <v>1.036403895918776</v>
+        <v>1.028800189886338</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042729240738318</v>
+        <v>1.021399817019501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036586960807683</v>
+        <v>1.046471328460216</v>
       </c>
       <c r="J6">
-        <v>1.036544859628504</v>
+        <v>1.033218434600433</v>
       </c>
       <c r="K6">
-        <v>1.038826383577338</v>
+        <v>1.038310508771384</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045136255000984</v>
+        <v>1.030991694011275</v>
       </c>
       <c r="N6">
-        <v>1.038016872222534</v>
+        <v>1.034685723289376</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031848018748635</v>
+        <v>1.013495818555657</v>
       </c>
       <c r="D7">
-        <v>1.036207562955984</v>
+        <v>1.027915417131982</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.042386970813937</v>
+        <v>1.019928399789212</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036526493975868</v>
+        <v>1.046123656270224</v>
       </c>
       <c r="J7">
-        <v>1.036397564239845</v>
+        <v>1.032554521904055</v>
       </c>
       <c r="K7">
-        <v>1.038690311939639</v>
+        <v>1.037685316557156</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.044854203707004</v>
+        <v>1.029789189342798</v>
       </c>
       <c r="N7">
-        <v>1.037869367657527</v>
+        <v>1.034020867760818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030761025423068</v>
+        <v>1.008347137448717</v>
       </c>
       <c r="D8">
-        <v>1.035387421782374</v>
+        <v>1.024148095854132</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.040957863591418</v>
+        <v>1.013659987394227</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036271705085888</v>
+        <v>1.044622994633267</v>
       </c>
       <c r="J8">
-        <v>1.035781211765831</v>
+        <v>1.029715947012827</v>
       </c>
       <c r="K8">
-        <v>1.038120652271623</v>
+        <v>1.035010606627931</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.043675598453534</v>
+        <v>1.024658050752612</v>
       </c>
       <c r="N8">
-        <v>1.037252139892304</v>
+        <v>1.031178261767655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028848154874785</v>
+        <v>0.9988671238340924</v>
       </c>
       <c r="D9">
-        <v>1.033944204482079</v>
+        <v>1.017232623034321</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.038445390426595</v>
+        <v>1.002133058828313</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035815052707117</v>
+        <v>1.041791173583851</v>
       </c>
       <c r="J9">
-        <v>1.034692612748316</v>
+        <v>1.024459950402125</v>
       </c>
       <c r="K9">
-        <v>1.037113503145393</v>
+        <v>1.030052165916058</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.041600011607559</v>
+        <v>1.015191623180977</v>
       </c>
       <c r="N9">
-        <v>1.03616199493932</v>
+        <v>1.025914801038894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027574698292978</v>
+        <v>0.9922456342204825</v>
       </c>
       <c r="D10">
-        <v>1.032983475401437</v>
+        <v>1.012419463246433</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.036774346200139</v>
+        <v>0.9940883741307746</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035505485202581</v>
+        <v>1.039768502433311</v>
       </c>
       <c r="J10">
-        <v>1.033965250597909</v>
+        <v>1.020770324787395</v>
       </c>
       <c r="K10">
-        <v>1.036439886397456</v>
+        <v>1.026568043519886</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.040217180406309</v>
+        <v>1.008565191485391</v>
       </c>
       <c r="N10">
-        <v>1.03543359985123</v>
+        <v>1.022219935732586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027023717878347</v>
+        <v>0.9893003018065123</v>
       </c>
       <c r="D11">
-        <v>1.032567823172718</v>
+        <v>1.010283204093217</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.036051707599336</v>
+        <v>0.9905106834867781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035370228363649</v>
+        <v>1.038858578499305</v>
       </c>
       <c r="J11">
-        <v>1.033649919962135</v>
+        <v>1.019125076013358</v>
       </c>
       <c r="K11">
-        <v>1.036147697187991</v>
+        <v>1.025013765310295</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.039618619476584</v>
+        <v>1.00561380097782</v>
       </c>
       <c r="N11">
-        <v>1.035117821409784</v>
+        <v>1.020572350516577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026819125756208</v>
+        <v>0.9881939185320763</v>
       </c>
       <c r="D12">
-        <v>1.032413485444059</v>
+        <v>1.009481504918215</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.035783428426947</v>
+        <v>0.9891667891095617</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035319806364773</v>
+        <v>1.038515275699537</v>
       </c>
       <c r="J12">
-        <v>1.033532736246816</v>
+        <v>1.018506475833393</v>
       </c>
       <c r="K12">
-        <v>1.036039089645341</v>
+        <v>1.024429281091006</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.039396320069213</v>
+        <v>1.00450452156493</v>
       </c>
       <c r="N12">
-        <v>1.035000471280148</v>
+        <v>1.019952871853402</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026863008430249</v>
+        <v>0.9884318108560491</v>
       </c>
       <c r="D13">
-        <v>1.032446588942987</v>
+        <v>1.009653849193956</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.035840968831291</v>
+        <v>0.9894557506473023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035330630263621</v>
+        <v>1.038589159164519</v>
       </c>
       <c r="J13">
-        <v>1.033557875065376</v>
+        <v>1.018639511730456</v>
       </c>
       <c r="K13">
-        <v>1.036062389731131</v>
+        <v>1.024554983816629</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.039444002553885</v>
+        <v>1.004743065332946</v>
       </c>
       <c r="N13">
-        <v>1.035025645798714</v>
+        <v>1.020086096676698</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027006804865273</v>
+        <v>0.9892091035400138</v>
       </c>
       <c r="D14">
-        <v>1.032555064457567</v>
+        <v>1.010217104811377</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.03602952868</v>
+        <v>0.9903999072776052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035366064166833</v>
+        <v>1.038830310608354</v>
       </c>
       <c r="J14">
-        <v>1.033640234654243</v>
+        <v>1.019074096922713</v>
       </c>
       <c r="K14">
-        <v>1.036138721188412</v>
+        <v>1.024965599453602</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.039600243466144</v>
+        <v>1.005522376843847</v>
       </c>
       <c r="N14">
-        <v>1.035108122347645</v>
+        <v>1.020521299029776</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027095411448276</v>
+        <v>0.9896863630524991</v>
       </c>
       <c r="D15">
-        <v>1.032621907003568</v>
+        <v>1.010563047617056</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.036145725324348</v>
+        <v>0.9909796228924349</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035387872117449</v>
+        <v>1.038978181446204</v>
       </c>
       <c r="J15">
-        <v>1.033690971738324</v>
+        <v>1.019340857656003</v>
       </c>
       <c r="K15">
-        <v>1.036185741548187</v>
+        <v>1.025217635717879</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.039696513009725</v>
+        <v>1.006000792822027</v>
       </c>
       <c r="N15">
-        <v>1.035158931484204</v>
+        <v>1.020788438593905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.027611274311754</v>
+        <v>0.9924394078877484</v>
       </c>
       <c r="D16">
-        <v>1.033011068365755</v>
+        <v>1.012560110755726</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.036822325083078</v>
+        <v>0.9943237588520792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035514436260401</v>
+        <v>1.039828156477512</v>
       </c>
       <c r="J16">
-        <v>1.0339861701674</v>
+        <v>1.020878483827968</v>
       </c>
       <c r="K16">
-        <v>1.036459267397616</v>
+        <v>1.026670209256176</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.040256909486462</v>
+        <v>1.008759279905894</v>
       </c>
       <c r="N16">
-        <v>1.03545454912891</v>
+        <v>1.022328248371402</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027934978702762</v>
+        <v>0.9941449704742428</v>
       </c>
       <c r="D17">
-        <v>1.033255273692014</v>
+        <v>1.013798608429235</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.037246988849393</v>
+        <v>0.9963956455553572</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035593502460303</v>
+        <v>1.04035206230415</v>
       </c>
       <c r="J17">
-        <v>1.034171239782192</v>
+        <v>1.021830023224914</v>
       </c>
       <c r="K17">
-        <v>1.036630707423074</v>
+        <v>1.027568947659395</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.040608489139238</v>
+        <v>1.010467168689875</v>
       </c>
       <c r="N17">
-        <v>1.035639881563782</v>
+        <v>1.023281139063435</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028123831856036</v>
+        <v>0.9951322959289479</v>
       </c>
       <c r="D18">
-        <v>1.033397748180236</v>
+        <v>1.014515999359297</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.037494778174081</v>
+        <v>0.9975951024717802</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035639503455691</v>
+        <v>1.040654371932082</v>
       </c>
       <c r="J18">
-        <v>1.034279151221977</v>
+        <v>1.022380469007534</v>
       </c>
       <c r="K18">
-        <v>1.036730656341145</v>
+        <v>1.028088785242953</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.040813580219633</v>
+        <v>1.011455477102415</v>
       </c>
       <c r="N18">
-        <v>1.035747946250189</v>
+        <v>1.023832366542204</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028188232963482</v>
+        <v>0.9954676940547009</v>
       </c>
       <c r="D19">
-        <v>1.033446333962464</v>
+        <v>1.014759773113776</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.037579283201482</v>
+        <v>0.9980025768377101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035655168748708</v>
+        <v>1.04075690176242</v>
       </c>
       <c r="J19">
-        <v>1.034315940009332</v>
+        <v>1.02256739106185</v>
       </c>
       <c r="K19">
-        <v>1.036764727973452</v>
+        <v>1.02826530208384</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.040883514456696</v>
+        <v>1.0117911486189</v>
       </c>
       <c r="N19">
-        <v>1.035784787281842</v>
+        <v>1.024019554047277</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027900243946582</v>
+        <v>0.9939627598218468</v>
       </c>
       <c r="D20">
-        <v>1.033229069280183</v>
+        <v>1.013666249484981</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.037201417119026</v>
+        <v>0.9961742924298377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035585031501548</v>
+        <v>1.040296192359075</v>
       </c>
       <c r="J20">
-        <v>1.034151387336399</v>
+        <v>1.021728407156982</v>
       </c>
       <c r="K20">
-        <v>1.036612318607468</v>
+        <v>1.027472976824844</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.040570765832849</v>
+        <v>1.010284747524753</v>
       </c>
       <c r="N20">
-        <v>1.035620000925239</v>
+        <v>1.023179378689031</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026964458552582</v>
+        <v>0.9889805563950402</v>
       </c>
       <c r="D21">
-        <v>1.03252311961937</v>
+        <v>1.010051469414592</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.035973998607955</v>
+        <v>0.9901222970599968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035355634774057</v>
+        <v>1.03875944590762</v>
       </c>
       <c r="J21">
-        <v>1.033615983343198</v>
+        <v>1.018946331684313</v>
       </c>
       <c r="K21">
-        <v>1.036116245552064</v>
+        <v>1.02484488344129</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.039554233502103</v>
+        <v>1.005293253524136</v>
       </c>
       <c r="N21">
-        <v>1.035083836596955</v>
+        <v>1.020393352350083</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026376478702453</v>
+        <v>0.9857762290715233</v>
       </c>
       <c r="D22">
-        <v>1.032079574290105</v>
+        <v>1.007731087404646</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.035203087824089</v>
+        <v>0.9862300466396517</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035210353597751</v>
+        <v>1.037762366601225</v>
       </c>
       <c r="J22">
-        <v>1.033279030768876</v>
+        <v>1.017153665988134</v>
       </c>
       <c r="K22">
-        <v>1.035803908620484</v>
+        <v>1.023150930126983</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.038915289197115</v>
+        <v>1.002079315059367</v>
       </c>
       <c r="N22">
-        <v>1.03474640551133</v>
+        <v>1.018598140862993</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026688140987544</v>
+        <v>0.9874819255066233</v>
       </c>
       <c r="D23">
-        <v>1.032314675882199</v>
+        <v>1.008965808594553</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.035611684682214</v>
+        <v>0.988301947742827</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035287469287445</v>
+        <v>1.038293931297195</v>
       </c>
       <c r="J23">
-        <v>1.0334576859986</v>
+        <v>1.018108227168508</v>
       </c>
       <c r="K23">
-        <v>1.035969525352913</v>
+        <v>1.024052972586368</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.039253987456781</v>
+        <v>1.00379048459183</v>
       </c>
       <c r="N23">
-        <v>1.034925314451972</v>
+        <v>1.019554057629734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027915938958542</v>
+        <v>0.9940451161065719</v>
       </c>
       <c r="D24">
-        <v>1.033240909822122</v>
+        <v>1.013726072231586</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.03722200874384</v>
+        <v>0.9962743402547347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035588859524682</v>
+        <v>1.04032144769134</v>
       </c>
       <c r="J24">
-        <v>1.034160357915094</v>
+        <v>1.021774337186229</v>
       </c>
       <c r="K24">
-        <v>1.036620627873664</v>
+        <v>1.027516355431798</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040587811307513</v>
+        <v>1.010367200082156</v>
       </c>
       <c r="N24">
-        <v>1.035628984243185</v>
+        <v>1.023225373944188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029342367724323</v>
+        <v>1.001368946403747</v>
       </c>
       <c r="D25">
-        <v>1.034317067570802</v>
+        <v>1.019054911534765</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.039094233887538</v>
+        <v>1.00517368625656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035934015310905</v>
+        <v>1.042546349529465</v>
       </c>
       <c r="J25">
-        <v>1.034974333010446</v>
+        <v>1.025850327706987</v>
       </c>
       <c r="K25">
-        <v>1.037374264594101</v>
+        <v>1.03136445443756</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.042136446192537</v>
+        <v>1.017692214826886</v>
       </c>
       <c r="N25">
-        <v>1.036444115276536</v>
+        <v>1.027307152839009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006994965112717</v>
+        <v>0.9942607315022746</v>
       </c>
       <c r="D2">
-        <v>1.023160013268948</v>
+        <v>1.01597828667678</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.016757033165109</v>
       </c>
       <c r="F2">
-        <v>1.01201484897206</v>
+        <v>1.023502396863639</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044224242795402</v>
+        <v>1.041376984196061</v>
       </c>
       <c r="J2">
-        <v>1.028968452071018</v>
+        <v>1.016614468747794</v>
       </c>
       <c r="K2">
-        <v>1.034305852793295</v>
+        <v>1.02721941775178</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.027987749634775</v>
       </c>
       <c r="M2">
-        <v>1.023309297615106</v>
+        <v>1.034643735300614</v>
       </c>
       <c r="N2">
-        <v>1.030429705297289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009542946005636</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035990568834008</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.0303166093994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01096419388458</v>
+        <v>0.9976735304879956</v>
       </c>
       <c r="D3">
-        <v>1.026062035209728</v>
+        <v>1.018114289182192</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.020247984496173</v>
       </c>
       <c r="F3">
-        <v>1.016845302146647</v>
+        <v>1.026712028006956</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045389388207155</v>
+        <v>1.041817068950639</v>
       </c>
       <c r="J3">
-        <v>1.031160361857767</v>
+        <v>1.018227818959153</v>
       </c>
       <c r="K3">
-        <v>1.036371963145841</v>
+        <v>1.028520524112344</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.030628181235749</v>
       </c>
       <c r="M3">
-        <v>1.027267087399591</v>
+        <v>1.037014161468554</v>
       </c>
       <c r="N3">
-        <v>1.032624727847351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010086509998766</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037866611571097</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031233929304475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013481787650522</v>
+        <v>0.9998435043828647</v>
       </c>
       <c r="D4">
-        <v>1.027905140088012</v>
+        <v>1.019475264539135</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.022473993215758</v>
       </c>
       <c r="F4">
-        <v>1.019911307226608</v>
+        <v>1.028759775447116</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046119606866556</v>
+        <v>1.042086628125073</v>
       </c>
       <c r="J4">
-        <v>1.03254680395459</v>
+        <v>1.019251214181623</v>
       </c>
       <c r="K4">
-        <v>1.037678047792057</v>
+        <v>1.029344187874949</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.03230853742355</v>
       </c>
       <c r="M4">
-        <v>1.029775216013203</v>
+        <v>1.038523057145624</v>
       </c>
       <c r="N4">
-        <v>1.034013138850979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010431277741515</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039060804717542</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031817248235649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014528423638849</v>
+        <v>1.000749300564135</v>
       </c>
       <c r="D5">
-        <v>1.028671912003465</v>
+        <v>1.020046097080046</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.023403135247168</v>
       </c>
       <c r="F5">
-        <v>1.021186498889031</v>
+        <v>1.029614770142644</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046421038796853</v>
+        <v>1.042197943151759</v>
       </c>
       <c r="J5">
-        <v>1.03312224471903</v>
+        <v>1.019679039754439</v>
       </c>
       <c r="K5">
-        <v>1.038219938873462</v>
+        <v>1.029689766955735</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.033009346586192</v>
       </c>
       <c r="M5">
-        <v>1.030817409927262</v>
+        <v>1.039152461931898</v>
       </c>
       <c r="N5">
-        <v>1.034589396807309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010575603514158</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039558937229801</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032068854573202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014703479851997</v>
+        <v>1.000903871773716</v>
       </c>
       <c r="D6">
-        <v>1.028800189886338</v>
+        <v>1.0201460829735</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.023559881605503</v>
       </c>
       <c r="F6">
-        <v>1.021399817019501</v>
+        <v>1.029759017075817</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046471328460216</v>
+        <v>1.042218369654703</v>
       </c>
       <c r="J6">
-        <v>1.033218434600433</v>
+        <v>1.019753520858537</v>
       </c>
       <c r="K6">
-        <v>1.038310508771384</v>
+        <v>1.029751921343451</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.033127803106708</v>
       </c>
       <c r="M6">
-        <v>1.030991694011275</v>
+        <v>1.039258874204563</v>
       </c>
       <c r="N6">
-        <v>1.034685723289376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010600979778671</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039643155514085</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032121642379776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013495818555657</v>
+        <v>0.9998636859869975</v>
       </c>
       <c r="D7">
-        <v>1.027915417131982</v>
+        <v>1.019494765140934</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.022489631195113</v>
       </c>
       <c r="F7">
-        <v>1.019928399789212</v>
+        <v>1.028774128605045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046123656270224</v>
+        <v>1.042093344015495</v>
       </c>
       <c r="J7">
-        <v>1.032554521904055</v>
+        <v>1.019264787366867</v>
       </c>
       <c r="K7">
-        <v>1.037685316557156</v>
+        <v>1.029360539662662</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.032321083806709</v>
       </c>
       <c r="M7">
-        <v>1.029789189342798</v>
+        <v>1.038534359625849</v>
       </c>
       <c r="N7">
-        <v>1.034020867760818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010436539921422</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039069749890682</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031849138959512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008347137448717</v>
+        <v>0.9954321323062811</v>
       </c>
       <c r="D8">
-        <v>1.024148095854132</v>
+        <v>1.01671917166383</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.017947827099978</v>
       </c>
       <c r="F8">
-        <v>1.013659987394227</v>
+        <v>1.024596863338189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044622994633267</v>
+        <v>1.041535302181188</v>
       </c>
       <c r="J8">
-        <v>1.029715947012827</v>
+        <v>1.017173673585127</v>
       </c>
       <c r="K8">
-        <v>1.035010606627931</v>
+        <v>1.027677335215185</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.028890050236707</v>
       </c>
       <c r="M8">
-        <v>1.024658050752612</v>
+        <v>1.035453651407934</v>
       </c>
       <c r="N8">
-        <v>1.031178261767655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009732253335378</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036631566883488</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030663561092538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9988671238340924</v>
+        <v>0.9873050735993273</v>
       </c>
       <c r="D9">
-        <v>1.017232623034321</v>
+        <v>1.011642604914317</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>1.009676942953937</v>
       </c>
       <c r="F9">
-        <v>1.002133058828313</v>
+        <v>1.016999165451455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041791173583851</v>
+        <v>1.040425745153405</v>
       </c>
       <c r="J9">
-        <v>1.024459950402125</v>
+        <v>1.013314226919808</v>
       </c>
       <c r="K9">
-        <v>1.030052165916058</v>
+        <v>1.024549571485411</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>1.022614945580132</v>
       </c>
       <c r="M9">
-        <v>1.015191623180977</v>
+        <v>1.029822334860385</v>
       </c>
       <c r="N9">
-        <v>1.025914801038894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008431049563945</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032174719264777</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028448769556363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9922456342204825</v>
+        <v>0.9817229472933622</v>
       </c>
       <c r="D10">
-        <v>1.012419463246433</v>
+        <v>1.008181355772035</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>1.004193979905533</v>
       </c>
       <c r="F10">
-        <v>0.9940883741307746</v>
+        <v>1.011995449781301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039768502433311</v>
+        <v>1.039622525408494</v>
       </c>
       <c r="J10">
-        <v>1.020770324787395</v>
+        <v>1.010680963662232</v>
       </c>
       <c r="K10">
-        <v>1.026568043519886</v>
+        <v>1.022404447956375</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.018487921394093</v>
       </c>
       <c r="M10">
-        <v>1.008565191485391</v>
+        <v>1.026151448412261</v>
       </c>
       <c r="N10">
-        <v>1.022219935732586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007545469982674</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029321434980988</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02694900552638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9893003018065123</v>
+        <v>0.979720229866558</v>
       </c>
       <c r="D11">
-        <v>1.010283204093217</v>
+        <v>1.006988777259709</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>1.003575502733215</v>
       </c>
       <c r="F11">
-        <v>0.9905106834867781</v>
+        <v>1.011644395415335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038858578499305</v>
+        <v>1.039397464085095</v>
       </c>
       <c r="J11">
-        <v>1.019125076013358</v>
+        <v>1.009961703085792</v>
       </c>
       <c r="K11">
-        <v>1.025013765310295</v>
+        <v>1.021780088103815</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.018430303852531</v>
       </c>
       <c r="M11">
-        <v>1.00561380097782</v>
+        <v>1.026350006505251</v>
       </c>
       <c r="N11">
-        <v>1.020572350516577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007321655986438</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029919133630659</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026540768179753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9881939185320763</v>
+        <v>0.9791475778463207</v>
       </c>
       <c r="D12">
-        <v>1.009481504918215</v>
+        <v>1.00666428544344</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>1.004028795370309</v>
       </c>
       <c r="F12">
-        <v>0.9891667891095617</v>
+        <v>1.012207644637233</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038515275699537</v>
+        <v>1.039362915794152</v>
       </c>
       <c r="J12">
-        <v>1.018506475833393</v>
+        <v>1.009861440487504</v>
       </c>
       <c r="K12">
-        <v>1.024429281091006</v>
+        <v>1.021664912396533</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.019079214921504</v>
       </c>
       <c r="M12">
-        <v>1.00450452156493</v>
+        <v>1.027104643950273</v>
       </c>
       <c r="N12">
-        <v>1.019952871853402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007302313333241</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030845141457736</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026459333475192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9884318108560491</v>
+        <v>0.9796434004191119</v>
       </c>
       <c r="D13">
-        <v>1.009653849193956</v>
+        <v>1.006996565473476</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>1.005340946634117</v>
       </c>
       <c r="F13">
-        <v>0.9894557506473023</v>
+        <v>1.013525127737029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038589159164519</v>
+        <v>1.039481917240323</v>
       </c>
       <c r="J13">
-        <v>1.018639511730456</v>
+        <v>1.010239116982144</v>
       </c>
       <c r="K13">
-        <v>1.024554983816629</v>
+        <v>1.021947350874423</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.020322840287299</v>
       </c>
       <c r="M13">
-        <v>1.004743065332946</v>
+        <v>1.028354535537151</v>
       </c>
       <c r="N13">
-        <v>1.020086096676698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00744276845411</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03211193727013</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026656509920739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9892091035400138</v>
+        <v>0.9804732075700344</v>
       </c>
       <c r="D14">
-        <v>1.010217104811377</v>
+        <v>1.007527308977132</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>1.006635147153411</v>
       </c>
       <c r="F14">
-        <v>0.9903999072776052</v>
+        <v>1.014777883235144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038830310608354</v>
+        <v>1.03963479906136</v>
       </c>
       <c r="J14">
-        <v>1.019074096922713</v>
+        <v>1.010718358554291</v>
       </c>
       <c r="K14">
-        <v>1.024965599453602</v>
+        <v>1.022325438344436</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>1.021449815958747</v>
       </c>
       <c r="M14">
-        <v>1.005522376843847</v>
+        <v>1.029443000307212</v>
       </c>
       <c r="N14">
-        <v>1.020521299029776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007613091442649</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033146593624984</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026925276649324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9896863630524991</v>
+        <v>0.9809111458676596</v>
       </c>
       <c r="D15">
-        <v>1.010563047617056</v>
+        <v>1.007803935465398</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>1.007157928435282</v>
       </c>
       <c r="F15">
-        <v>0.9909796228924349</v>
+        <v>1.015271589300218</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038978181446204</v>
+        <v>1.039707456388937</v>
       </c>
       <c r="J15">
-        <v>1.019340857656003</v>
+        <v>1.010944142023716</v>
       </c>
       <c r="K15">
-        <v>1.025217635717879</v>
+        <v>1.022509048163932</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>1.021874922864901</v>
       </c>
       <c r="M15">
-        <v>1.006000792822027</v>
+        <v>1.029840779382186</v>
       </c>
       <c r="N15">
-        <v>1.020788438593905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007691252168485</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033498706266987</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.02706103479366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9924394078877484</v>
+        <v>0.9831658180174028</v>
       </c>
       <c r="D16">
-        <v>1.012560110755726</v>
+        <v>1.009196773446549</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>1.009222380702734</v>
       </c>
       <c r="F16">
-        <v>0.9943237588520792</v>
+        <v>1.017158455921528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039828156477512</v>
+        <v>1.04003542839071</v>
       </c>
       <c r="J16">
-        <v>1.020878483827968</v>
+        <v>1.011984654643142</v>
       </c>
       <c r="K16">
-        <v>1.026670209256176</v>
+        <v>1.023365743338743</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>1.023390900447754</v>
       </c>
       <c r="M16">
-        <v>1.008759279905894</v>
+        <v>1.03118888029103</v>
       </c>
       <c r="N16">
-        <v>1.022328248371402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008038877194448</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034525344320753</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027669965730943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9941449704742428</v>
+        <v>0.9844649424792477</v>
       </c>
       <c r="D17">
-        <v>1.013798608429235</v>
+        <v>1.009990884357461</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.010131860985965</v>
       </c>
       <c r="F17">
-        <v>0.9963956455553572</v>
+        <v>1.017948106735878</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04035206230415</v>
+        <v>1.040205299189031</v>
       </c>
       <c r="J17">
-        <v>1.021830023224914</v>
+        <v>1.012533483849536</v>
       </c>
       <c r="K17">
-        <v>1.027568947659395</v>
+        <v>1.02382597589068</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>1.023964543897223</v>
       </c>
       <c r="M17">
-        <v>1.010467168689875</v>
+        <v>1.031648592578985</v>
       </c>
       <c r="N17">
-        <v>1.023281139063435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008216814038528</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034759054464429</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027997992773919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9951322959289479</v>
+        <v>0.9850546657564773</v>
       </c>
       <c r="D18">
-        <v>1.014515999359297</v>
+        <v>1.010331737256314</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>1.010053400792431</v>
       </c>
       <c r="F18">
-        <v>0.9975951024717802</v>
+        <v>1.017779133455116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040654371932082</v>
+        <v>1.040251502276947</v>
       </c>
       <c r="J18">
-        <v>1.022380469007534</v>
+        <v>1.012694427479475</v>
       </c>
       <c r="K18">
-        <v>1.028088785242953</v>
+        <v>1.023974483125135</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>1.023700826902712</v>
       </c>
       <c r="M18">
-        <v>1.011455477102415</v>
+        <v>1.031297874095011</v>
       </c>
       <c r="N18">
-        <v>1.023832366542204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008259312018518</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034242756559363</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028091228411899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9954676940547009</v>
+        <v>0.9850141851732114</v>
       </c>
       <c r="D19">
-        <v>1.014759773113776</v>
+        <v>1.010281289026852</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>1.009072200617887</v>
       </c>
       <c r="F19">
-        <v>0.9980025768377101</v>
+        <v>1.016730122282501</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04075690176242</v>
+        <v>1.040196372402017</v>
       </c>
       <c r="J19">
-        <v>1.02256739106185</v>
+        <v>1.01251752599819</v>
       </c>
       <c r="K19">
-        <v>1.02826530208384</v>
+        <v>1.023861278484535</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.022672438771099</v>
       </c>
       <c r="M19">
-        <v>1.0117911486189</v>
+        <v>1.030203158962738</v>
       </c>
       <c r="N19">
-        <v>1.024019554047277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008186140342006</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033049341910393</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.0280176539349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9939627598218468</v>
+        <v>0.9831899156354021</v>
       </c>
       <c r="D20">
-        <v>1.013666249484981</v>
+        <v>1.009106114068196</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.005628546332427</v>
       </c>
       <c r="F20">
-        <v>0.9961742924298377</v>
+        <v>1.013305089189325</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040296192359075</v>
+        <v>1.039847503274779</v>
       </c>
       <c r="J20">
-        <v>1.021728407156982</v>
+        <v>1.011384578729528</v>
       </c>
       <c r="K20">
-        <v>1.027472976824844</v>
+        <v>1.02299071123807</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.01957314133715</v>
       </c>
       <c r="M20">
-        <v>1.010284747524753</v>
+        <v>1.027117950783712</v>
       </c>
       <c r="N20">
-        <v>1.023179378689031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007784232914221</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030075661787935</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027406078945264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9889805563950402</v>
+        <v>0.9789125953101757</v>
       </c>
       <c r="D21">
-        <v>1.010051469414592</v>
+        <v>1.006450323208085</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>1.00118666095613</v>
       </c>
       <c r="F21">
-        <v>0.9901222970599968</v>
+        <v>1.009210845580578</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03875944590762</v>
+        <v>1.039199414347131</v>
       </c>
       <c r="J21">
-        <v>1.018946331684313</v>
+        <v>1.009319217637038</v>
       </c>
       <c r="K21">
-        <v>1.02484488344129</v>
+        <v>1.021310514090435</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>1.016145586503763</v>
       </c>
       <c r="M21">
-        <v>1.005293253524136</v>
+        <v>1.024019791895959</v>
       </c>
       <c r="N21">
-        <v>1.020393352350083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007086211721801</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027582326531813</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026221351297381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857762290715233</v>
+        <v>0.9761910402295306</v>
       </c>
       <c r="D22">
-        <v>1.007731087404646</v>
+        <v>1.004761271059921</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9984545409595399</v>
       </c>
       <c r="F22">
-        <v>0.9862300466396517</v>
+        <v>1.006707668298884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037762366601225</v>
+        <v>1.038777393132336</v>
       </c>
       <c r="J22">
-        <v>1.017153665988134</v>
+        <v>1.008013005629502</v>
       </c>
       <c r="K22">
-        <v>1.023150930126983</v>
+        <v>1.020238992665959</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.014056675991111</v>
       </c>
       <c r="M22">
-        <v>1.002079315059367</v>
+        <v>1.022147405913805</v>
       </c>
       <c r="N22">
-        <v>1.018598140862993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006644890270632</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026100429770693</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025450056927047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9874819255066233</v>
+        <v>0.9776316843762723</v>
       </c>
       <c r="D23">
-        <v>1.008965808594553</v>
+        <v>1.005649041800485</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9999040163303714</v>
       </c>
       <c r="F23">
-        <v>0.988301947742827</v>
+        <v>1.008035846419756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038293931297195</v>
+        <v>1.038998257813002</v>
       </c>
       <c r="J23">
-        <v>1.018108227168508</v>
+        <v>1.008701194422527</v>
       </c>
       <c r="K23">
-        <v>1.024052972586368</v>
+        <v>1.020799176597646</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>1.015164519326545</v>
       </c>
       <c r="M23">
-        <v>1.00379048459183</v>
+        <v>1.023140611649272</v>
       </c>
       <c r="N23">
-        <v>1.019554057629734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006876639631812</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026886501191593</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02583639194753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9940451161065719</v>
+        <v>0.9832048129596821</v>
       </c>
       <c r="D24">
-        <v>1.013726072231586</v>
+        <v>1.009102508826229</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.005520677413205</v>
       </c>
       <c r="F24">
-        <v>0.9962743402547347</v>
+        <v>1.013185115624323</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04032144769134</v>
+        <v>1.039837547730897</v>
       </c>
       <c r="J24">
-        <v>1.021774337186229</v>
+        <v>1.011365068243351</v>
       </c>
       <c r="K24">
-        <v>1.027516355431798</v>
+        <v>1.022971637858297</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.019451532461834</v>
       </c>
       <c r="M24">
-        <v>1.010367200082156</v>
+        <v>1.0269845757959</v>
       </c>
       <c r="N24">
-        <v>1.023225373944188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007774976859983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029928793274783</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027364872932197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001368946403747</v>
+        <v>0.9894565522528801</v>
       </c>
       <c r="D25">
-        <v>1.019054911534765</v>
+        <v>1.012993757564759</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>1.011853152935723</v>
       </c>
       <c r="F25">
-        <v>1.00517368625656</v>
+        <v>1.018996821890849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042546349529465</v>
+        <v>1.040734860245859</v>
       </c>
       <c r="J25">
-        <v>1.025850327706987</v>
+        <v>1.014344030951394</v>
       </c>
       <c r="K25">
-        <v>1.03136445443756</v>
+        <v>1.025393656119568</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>1.024270208952487</v>
       </c>
       <c r="M25">
-        <v>1.017692214826886</v>
+        <v>1.03130722427271</v>
       </c>
       <c r="N25">
-        <v>1.027307152839009</v>
+        <v>1.008779460211728</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033349922471755</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029074508286983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9942607315022746</v>
+        <v>0.994803794124294</v>
       </c>
       <c r="D2">
-        <v>1.01597828667678</v>
+        <v>1.016288754517757</v>
       </c>
       <c r="E2">
-        <v>1.016757033165109</v>
+        <v>1.016907562590202</v>
       </c>
       <c r="F2">
-        <v>1.023502396863639</v>
+        <v>1.023686054977577</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041376984196061</v>
+        <v>1.041507086062638</v>
       </c>
       <c r="J2">
-        <v>1.016614468747794</v>
+        <v>1.017141041421805</v>
       </c>
       <c r="K2">
-        <v>1.02721941775178</v>
+        <v>1.027525731132376</v>
       </c>
       <c r="L2">
-        <v>1.027987749634775</v>
+        <v>1.028136268257403</v>
       </c>
       <c r="M2">
-        <v>1.034643735300614</v>
+        <v>1.034824980539792</v>
       </c>
       <c r="N2">
-        <v>1.009542946005636</v>
+        <v>1.011812986069426</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035990568834008</v>
+        <v>1.036134013179006</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0303166093994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030542074057448</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019490266129627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9976735304879956</v>
+        <v>0.9981019076437827</v>
       </c>
       <c r="D3">
-        <v>1.018114289182192</v>
+        <v>1.018279467427343</v>
       </c>
       <c r="E3">
-        <v>1.020247984496173</v>
+        <v>1.020365439726215</v>
       </c>
       <c r="F3">
-        <v>1.026712028006956</v>
+        <v>1.026856531510538</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041817068950639</v>
+        <v>1.041886855920793</v>
       </c>
       <c r="J3">
-        <v>1.018227818959153</v>
+        <v>1.018644450654157</v>
       </c>
       <c r="K3">
-        <v>1.028520524112344</v>
+        <v>1.028683681787679</v>
       </c>
       <c r="L3">
-        <v>1.030628181235749</v>
+        <v>1.030744207050435</v>
       </c>
       <c r="M3">
-        <v>1.037014161468554</v>
+        <v>1.037156933802383</v>
       </c>
       <c r="N3">
-        <v>1.010086509998766</v>
+        <v>1.012215975250966</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037866611571097</v>
+        <v>1.037979606706582</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031233929304475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031357891734897</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019698584234318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998435043828647</v>
+        <v>1.000199745393047</v>
       </c>
       <c r="D4">
-        <v>1.019475264539135</v>
+        <v>1.019548600211024</v>
       </c>
       <c r="E4">
-        <v>1.022473993215758</v>
+        <v>1.022570853169364</v>
       </c>
       <c r="F4">
-        <v>1.028759775447116</v>
+        <v>1.028879723205158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042086628125073</v>
+        <v>1.042118229134338</v>
       </c>
       <c r="J4">
-        <v>1.019251214181623</v>
+        <v>1.019598343042837</v>
       </c>
       <c r="K4">
-        <v>1.029344187874949</v>
+        <v>1.029416679806324</v>
       </c>
       <c r="L4">
-        <v>1.03230853742355</v>
+        <v>1.032404291067431</v>
       </c>
       <c r="M4">
-        <v>1.038523057145624</v>
+        <v>1.038641655473576</v>
       </c>
       <c r="N4">
-        <v>1.010431277741515</v>
+        <v>1.012471674846672</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039060804717542</v>
+        <v>1.03915466752409</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031817248235649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031877182607259</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019827910315071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000749300564135</v>
+        <v>1.001075616285761</v>
       </c>
       <c r="D5">
-        <v>1.020046097080046</v>
+        <v>1.02008126901051</v>
       </c>
       <c r="E5">
-        <v>1.023403135247168</v>
+        <v>1.023491501679943</v>
       </c>
       <c r="F5">
-        <v>1.029614770142644</v>
+        <v>1.029724547111006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042197943151759</v>
+        <v>1.042213660861049</v>
       </c>
       <c r="J5">
-        <v>1.019679039754439</v>
+        <v>1.019997256196095</v>
       </c>
       <c r="K5">
-        <v>1.029689766955735</v>
+        <v>1.029724544857075</v>
       </c>
       <c r="L5">
-        <v>1.033009346586192</v>
+        <v>1.033096731090636</v>
       </c>
       <c r="M5">
-        <v>1.039152461931898</v>
+        <v>1.039261037097376</v>
       </c>
       <c r="N5">
-        <v>1.010575603514158</v>
+        <v>1.012578772905775</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039558937229801</v>
+        <v>1.039644867300765</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032068854573202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032102831449563</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019882008098671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000903871773716</v>
+        <v>1.001225098337318</v>
       </c>
       <c r="D6">
-        <v>1.0201460829735</v>
+        <v>1.020174806232816</v>
       </c>
       <c r="E6">
-        <v>1.023559881605503</v>
+        <v>1.023646808085303</v>
       </c>
       <c r="F6">
-        <v>1.029759017075817</v>
+        <v>1.029867064637146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042218369654703</v>
+        <v>1.042231399979176</v>
       </c>
       <c r="J6">
-        <v>1.019753520858537</v>
+        <v>1.020066815128935</v>
       </c>
       <c r="K6">
-        <v>1.029751921343451</v>
+        <v>1.029780324272622</v>
       </c>
       <c r="L6">
-        <v>1.033127803106708</v>
+        <v>1.033213768158357</v>
       </c>
       <c r="M6">
-        <v>1.039258874204563</v>
+        <v>1.039365744358672</v>
       </c>
       <c r="N6">
-        <v>1.010600979778671</v>
+        <v>1.012597647909731</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039643155514085</v>
+        <v>1.03972773617135</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032121642379776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032151979285057</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019892259533468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998636859869975</v>
+        <v>1.000226796956899</v>
       </c>
       <c r="D7">
-        <v>1.019494765140934</v>
+        <v>1.01957254750042</v>
       </c>
       <c r="E7">
-        <v>1.022489631195113</v>
+        <v>1.022589025027075</v>
       </c>
       <c r="F7">
-        <v>1.028774128605045</v>
+        <v>1.028896511017359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042093344015495</v>
+        <v>1.042126876931404</v>
       </c>
       <c r="J7">
-        <v>1.019264787366867</v>
+        <v>1.019618614457661</v>
       </c>
       <c r="K7">
-        <v>1.029360539662662</v>
+        <v>1.029437427467977</v>
       </c>
       <c r="L7">
-        <v>1.032321083806709</v>
+        <v>1.03241934281322</v>
       </c>
       <c r="M7">
-        <v>1.038534359625849</v>
+        <v>1.038655365728384</v>
       </c>
       <c r="N7">
-        <v>1.010436539921422</v>
+        <v>1.012503527307387</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039069749890682</v>
+        <v>1.039165518291745</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031849138959512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031914178084034</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019833407424066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9954321323062811</v>
+        <v>0.9959587806880829</v>
       </c>
       <c r="D8">
-        <v>1.01671917166383</v>
+        <v>1.016995743664681</v>
       </c>
       <c r="E8">
-        <v>1.017947827099978</v>
+        <v>1.018095489952463</v>
       </c>
       <c r="F8">
-        <v>1.024596863338189</v>
+        <v>1.024775215314852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041535302181188</v>
+        <v>1.041651623657275</v>
       </c>
       <c r="J8">
-        <v>1.017173673585127</v>
+        <v>1.017684863132852</v>
       </c>
       <c r="K8">
-        <v>1.027677335215185</v>
+        <v>1.027950314801992</v>
       </c>
       <c r="L8">
-        <v>1.028890050236707</v>
+        <v>1.029035800571817</v>
       </c>
       <c r="M8">
-        <v>1.035453651407934</v>
+        <v>1.035629730770378</v>
       </c>
       <c r="N8">
-        <v>1.009732253335378</v>
+        <v>1.012038094905727</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036631566883488</v>
+        <v>1.03677092263263</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030663561092538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03086771918319</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019570359812273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9873050735993273</v>
+        <v>0.988113090827087</v>
       </c>
       <c r="D9">
-        <v>1.011642604914317</v>
+        <v>1.012270683799231</v>
       </c>
       <c r="E9">
-        <v>1.009676942953937</v>
+        <v>1.009907713604666</v>
       </c>
       <c r="F9">
-        <v>1.016999165451455</v>
+        <v>1.01727416704635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040425745153405</v>
+        <v>1.040687678918905</v>
       </c>
       <c r="J9">
-        <v>1.013314226919808</v>
+        <v>1.014092704193345</v>
       </c>
       <c r="K9">
-        <v>1.024549571485411</v>
+        <v>1.025167766077949</v>
       </c>
       <c r="L9">
-        <v>1.022614945580132</v>
+        <v>1.022842064552502</v>
       </c>
       <c r="M9">
-        <v>1.029822334860385</v>
+        <v>1.030093064806834</v>
       </c>
       <c r="N9">
-        <v>1.008431049563945</v>
+        <v>1.011084179812426</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032174719264777</v>
+        <v>1.032388986345495</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028448769556363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028896745507258</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01905432670113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9817229472933622</v>
+        <v>0.9827615851956317</v>
       </c>
       <c r="D10">
-        <v>1.008181355772035</v>
+        <v>1.009075986877194</v>
       </c>
       <c r="E10">
-        <v>1.004193979905533</v>
+        <v>1.004497016185004</v>
       </c>
       <c r="F10">
-        <v>1.011995449781301</v>
+        <v>1.012350437732602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039622525408494</v>
+        <v>1.039994862926523</v>
       </c>
       <c r="J10">
-        <v>1.010680963662232</v>
+        <v>1.01167624283679</v>
       </c>
       <c r="K10">
-        <v>1.022404447956375</v>
+        <v>1.023283282611369</v>
       </c>
       <c r="L10">
-        <v>1.018487921394093</v>
+        <v>1.0187855475612</v>
       </c>
       <c r="M10">
-        <v>1.026151448412261</v>
+        <v>1.026500225098272</v>
       </c>
       <c r="N10">
-        <v>1.007545469982674</v>
+        <v>1.010554987817487</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029321434980988</v>
+        <v>1.029597455066852</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02694900552638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027582951780311</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018697490797445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.979720229866558</v>
+        <v>0.9808872953200192</v>
       </c>
       <c r="D11">
-        <v>1.006988777259709</v>
+        <v>1.008005607692069</v>
       </c>
       <c r="E11">
-        <v>1.003575502733215</v>
+        <v>1.003917532984857</v>
       </c>
       <c r="F11">
-        <v>1.011644395415335</v>
+        <v>1.012042055915213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039397464085095</v>
+        <v>1.03982021869641</v>
       </c>
       <c r="J11">
-        <v>1.009961703085792</v>
+        <v>1.011077382558727</v>
       </c>
       <c r="K11">
-        <v>1.021780088103815</v>
+        <v>1.022778112836931</v>
       </c>
       <c r="L11">
-        <v>1.018430303852531</v>
+        <v>1.018765946603201</v>
       </c>
       <c r="M11">
-        <v>1.026350006505251</v>
+        <v>1.026740394529217</v>
       </c>
       <c r="N11">
-        <v>1.007321655986438</v>
+        <v>1.010636894328034</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029919133630659</v>
+        <v>1.030227926074504</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026540768179753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027262197746564</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018627410259156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9791475778463207</v>
+        <v>0.9803566211834471</v>
       </c>
       <c r="D12">
-        <v>1.00666428544344</v>
+        <v>1.007716833469081</v>
       </c>
       <c r="E12">
-        <v>1.004028795370309</v>
+        <v>1.004380161337465</v>
       </c>
       <c r="F12">
-        <v>1.012207644637233</v>
+        <v>1.012617887948206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039362915794152</v>
+        <v>1.039800038387351</v>
       </c>
       <c r="J12">
-        <v>1.009861440487504</v>
+        <v>1.011016234985821</v>
       </c>
       <c r="K12">
-        <v>1.021664912396533</v>
+        <v>1.022697669561007</v>
       </c>
       <c r="L12">
-        <v>1.019079214921504</v>
+        <v>1.01942392275858</v>
       </c>
       <c r="M12">
-        <v>1.027104643950273</v>
+        <v>1.027507276964615</v>
       </c>
       <c r="N12">
-        <v>1.007302313333241</v>
+        <v>1.010732851759424</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030845141457736</v>
+        <v>1.031163509945511</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026459333475192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027205321845665</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018630420362527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9796434004191119</v>
+        <v>0.9808193126158622</v>
       </c>
       <c r="D13">
-        <v>1.006996565473476</v>
+        <v>1.008012568270301</v>
       </c>
       <c r="E13">
-        <v>1.005340946634117</v>
+        <v>1.005676301882473</v>
       </c>
       <c r="F13">
-        <v>1.013525127737029</v>
+        <v>1.013922049805641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039481917240323</v>
+        <v>1.03990322746286</v>
       </c>
       <c r="J13">
-        <v>1.010239116982144</v>
+        <v>1.011362534562308</v>
       </c>
       <c r="K13">
-        <v>1.021947350874423</v>
+        <v>1.022944329528871</v>
       </c>
       <c r="L13">
-        <v>1.020322840287299</v>
+        <v>1.020651883572445</v>
       </c>
       <c r="M13">
-        <v>1.028354535537151</v>
+        <v>1.028744143795878</v>
       </c>
       <c r="N13">
-        <v>1.00744276845411</v>
+        <v>1.010812529825519</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03211193727013</v>
+        <v>1.032419928552852</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026656509920739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027376955236986</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018692626569233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9804732075700344</v>
+        <v>0.9815923038016718</v>
       </c>
       <c r="D14">
-        <v>1.007527308977132</v>
+        <v>1.008485446366413</v>
       </c>
       <c r="E14">
-        <v>1.006635147153411</v>
+        <v>1.006948872703649</v>
       </c>
       <c r="F14">
-        <v>1.014777883235144</v>
+        <v>1.01515413834379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03963479906136</v>
+        <v>1.040031609621629</v>
       </c>
       <c r="J14">
-        <v>1.010718358554291</v>
+        <v>1.011788214896969</v>
       </c>
       <c r="K14">
-        <v>1.022325438344436</v>
+        <v>1.023265855679899</v>
       </c>
       <c r="L14">
-        <v>1.021449815958747</v>
+        <v>1.021757721117211</v>
       </c>
       <c r="M14">
-        <v>1.029443000307212</v>
+        <v>1.029812420451265</v>
       </c>
       <c r="N14">
-        <v>1.007613091442649</v>
+        <v>1.010861743662377</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033146593624984</v>
+        <v>1.033438586232866</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026925276649324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027605863421241</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018763217620513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9809111458676596</v>
+        <v>0.9820006716279535</v>
       </c>
       <c r="D15">
-        <v>1.007803935465398</v>
+        <v>1.008732672693393</v>
       </c>
       <c r="E15">
-        <v>1.007157928435282</v>
+        <v>1.007461541037256</v>
       </c>
       <c r="F15">
-        <v>1.015271589300218</v>
+        <v>1.01563746878624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039707456388937</v>
+        <v>1.040091929645518</v>
       </c>
       <c r="J15">
-        <v>1.010944142023716</v>
+        <v>1.011986147626382</v>
       </c>
       <c r="K15">
-        <v>1.022509048163932</v>
+        <v>1.023420738254558</v>
       </c>
       <c r="L15">
-        <v>1.021874922864901</v>
+        <v>1.022172948777511</v>
       </c>
       <c r="M15">
-        <v>1.029840779382186</v>
+        <v>1.030200066065672</v>
       </c>
       <c r="N15">
-        <v>1.007691252168485</v>
+        <v>1.010874537312996</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033498706266987</v>
+        <v>1.03378268182247</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.02706103479366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027721877364395</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018794860985137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9831658180174028</v>
+        <v>0.984113512923658</v>
       </c>
       <c r="D16">
-        <v>1.009196773446549</v>
+        <v>1.009984816409903</v>
       </c>
       <c r="E16">
-        <v>1.009222380702734</v>
+        <v>1.009482029667634</v>
       </c>
       <c r="F16">
-        <v>1.017158455921528</v>
+        <v>1.017475991941869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04003542839071</v>
+        <v>1.040361448187149</v>
       </c>
       <c r="J16">
-        <v>1.011984654643142</v>
+        <v>1.012893073750304</v>
       </c>
       <c r="K16">
-        <v>1.023365743338743</v>
+        <v>1.024139946931331</v>
       </c>
       <c r="L16">
-        <v>1.023390900447754</v>
+        <v>1.023645986743248</v>
       </c>
       <c r="M16">
-        <v>1.03118888029103</v>
+        <v>1.031500948830496</v>
       </c>
       <c r="N16">
-        <v>1.008038877194448</v>
+        <v>1.010908480833232</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034525344320753</v>
+        <v>1.034772006412849</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027669965730943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028233896155461</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018928385196509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9844649424792477</v>
+        <v>0.9853422893282312</v>
       </c>
       <c r="D17">
-        <v>1.009990884357461</v>
+        <v>1.010707253663059</v>
       </c>
       <c r="E17">
-        <v>1.010131860985965</v>
+        <v>1.010371332567106</v>
       </c>
       <c r="F17">
-        <v>1.017948106735878</v>
+        <v>1.018242158075519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040205299189031</v>
+        <v>1.040501769005956</v>
       </c>
       <c r="J17">
-        <v>1.012533483849536</v>
+        <v>1.013375633078008</v>
       </c>
       <c r="K17">
-        <v>1.02382597589068</v>
+        <v>1.024530114842195</v>
       </c>
       <c r="L17">
-        <v>1.023964543897223</v>
+        <v>1.024199926034863</v>
       </c>
       <c r="M17">
-        <v>1.031648592578985</v>
+        <v>1.031937721646871</v>
       </c>
       <c r="N17">
-        <v>1.008216814038528</v>
+        <v>1.0109383914446</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034759054464429</v>
+        <v>1.034987607908183</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027997992773919</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028512630480828</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018995024678153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9850546657564773</v>
+        <v>0.9859060140294846</v>
       </c>
       <c r="D18">
-        <v>1.010331737256314</v>
+        <v>1.011021909234122</v>
       </c>
       <c r="E18">
-        <v>1.010053400792431</v>
+        <v>1.010287228076954</v>
       </c>
       <c r="F18">
-        <v>1.017779133455116</v>
+        <v>1.018065231801831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040251502276947</v>
+        <v>1.040537478974212</v>
       </c>
       <c r="J18">
-        <v>1.012694427479475</v>
+        <v>1.013512256622033</v>
       </c>
       <c r="K18">
-        <v>1.023974483125135</v>
+        <v>1.024653064159125</v>
       </c>
       <c r="L18">
-        <v>1.023700826902712</v>
+        <v>1.023930722146476</v>
       </c>
       <c r="M18">
-        <v>1.031297874095011</v>
+        <v>1.031579255227387</v>
       </c>
       <c r="N18">
-        <v>1.008259312018518</v>
+        <v>1.010925271527879</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034242756559363</v>
+        <v>1.034465232149138</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028091228411899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028586662433307</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019004879681034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9850141851732114</v>
+        <v>0.9858728777056551</v>
       </c>
       <c r="D19">
-        <v>1.010281289026852</v>
+        <v>1.010981539629856</v>
       </c>
       <c r="E19">
-        <v>1.009072200617887</v>
+        <v>1.00931126361527</v>
       </c>
       <c r="F19">
-        <v>1.016730122282501</v>
+        <v>1.017020017026293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040196372402017</v>
+        <v>1.040486982684839</v>
       </c>
       <c r="J19">
-        <v>1.01251752599819</v>
+        <v>1.013342605218979</v>
       </c>
       <c r="K19">
-        <v>1.023861278484535</v>
+        <v>1.02454983047304</v>
       </c>
       <c r="L19">
-        <v>1.022672438771099</v>
+        <v>1.022907493202383</v>
       </c>
       <c r="M19">
-        <v>1.030203158962738</v>
+        <v>1.030488286825419</v>
       </c>
       <c r="N19">
-        <v>1.008186140342006</v>
+        <v>1.010858169205922</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033049341910393</v>
+        <v>1.033274854525084</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.0280176539349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028520761642743</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018968419267599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9831899156354021</v>
+        <v>0.9841466557589111</v>
       </c>
       <c r="D20">
-        <v>1.009106114068196</v>
+        <v>1.009916087497389</v>
       </c>
       <c r="E20">
-        <v>1.005628546332427</v>
+        <v>1.005904024965398</v>
       </c>
       <c r="F20">
-        <v>1.013305089189325</v>
+        <v>1.013631318528766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039847503274779</v>
+        <v>1.040184439747447</v>
       </c>
       <c r="J20">
-        <v>1.011384578729528</v>
+        <v>1.012302678651299</v>
       </c>
       <c r="K20">
-        <v>1.02299071123807</v>
+        <v>1.023786787016401</v>
       </c>
       <c r="L20">
-        <v>1.01957314133715</v>
+        <v>1.019843847612561</v>
       </c>
       <c r="M20">
-        <v>1.027117950783712</v>
+        <v>1.027438638919283</v>
       </c>
       <c r="N20">
-        <v>1.007784232914221</v>
+        <v>1.010625800143666</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030075661787935</v>
+        <v>1.03032945579495</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027406078945264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027985602128164</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018795366005998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9789125953101757</v>
+        <v>0.9801507692109456</v>
       </c>
       <c r="D21">
-        <v>1.006450323208085</v>
+        <v>1.007539189358149</v>
       </c>
       <c r="E21">
-        <v>1.00118666095613</v>
+        <v>1.001561965002318</v>
       </c>
       <c r="F21">
-        <v>1.009210845580578</v>
+        <v>1.009636877316719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039199414347131</v>
+        <v>1.039653271175965</v>
       </c>
       <c r="J21">
-        <v>1.009319217637038</v>
+        <v>1.010502476353231</v>
       </c>
       <c r="K21">
-        <v>1.021310514090435</v>
+        <v>1.022379123485095</v>
       </c>
       <c r="L21">
-        <v>1.016145586503763</v>
+        <v>1.016513805779209</v>
       </c>
       <c r="M21">
-        <v>1.024019791895959</v>
+        <v>1.024437947588547</v>
       </c>
       <c r="N21">
-        <v>1.007086211721801</v>
+        <v>1.010559301970834</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027582326531813</v>
+        <v>1.02791327471991</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026221351297381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026993899628395</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018526015618515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9761910402295306</v>
+        <v>0.9776073376204228</v>
       </c>
       <c r="D22">
-        <v>1.004761271059921</v>
+        <v>1.006027314853942</v>
       </c>
       <c r="E22">
-        <v>0.9984545409595399</v>
+        <v>0.9988952009169224</v>
       </c>
       <c r="F22">
-        <v>1.006707668298884</v>
+        <v>1.007197223644839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038777393132336</v>
+        <v>1.039305530481771</v>
       </c>
       <c r="J22">
-        <v>1.008013005629502</v>
+        <v>1.009362830249967</v>
       </c>
       <c r="K22">
-        <v>1.020238992665959</v>
+        <v>1.021480307668726</v>
       </c>
       <c r="L22">
-        <v>1.014056675991111</v>
+        <v>1.014488575909868</v>
       </c>
       <c r="M22">
-        <v>1.022147405913805</v>
+        <v>1.022627437869361</v>
       </c>
       <c r="N22">
-        <v>1.006644890270632</v>
+        <v>1.010510856106558</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026100429770693</v>
+        <v>1.026480350566392</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025450056927047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026343422526797</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018351819674556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9776316843762723</v>
+        <v>0.9789415155311136</v>
       </c>
       <c r="D23">
-        <v>1.005649041800485</v>
+        <v>1.006812438873709</v>
       </c>
       <c r="E23">
-        <v>0.9999040163303714</v>
+        <v>1.000304622216857</v>
       </c>
       <c r="F23">
-        <v>1.008035846419756</v>
+        <v>1.008487322902584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038998257813002</v>
+        <v>1.03948326769509</v>
       </c>
       <c r="J23">
-        <v>1.008701194422527</v>
+        <v>1.009951352352579</v>
       </c>
       <c r="K23">
-        <v>1.020799176597646</v>
+        <v>1.021940424099226</v>
       </c>
       <c r="L23">
-        <v>1.015164519326545</v>
+        <v>1.0155573752585</v>
       </c>
       <c r="M23">
-        <v>1.023140611649272</v>
+        <v>1.023583537813225</v>
       </c>
       <c r="N23">
-        <v>1.006876639631812</v>
+        <v>1.010492232633452</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026886501191593</v>
+        <v>1.027237054252117</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02583639194753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026658062811551</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018439470945193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9832048129596821</v>
+        <v>0.9841611228962622</v>
       </c>
       <c r="D24">
-        <v>1.009102508826229</v>
+        <v>1.009912260991735</v>
       </c>
       <c r="E24">
-        <v>1.005520677413205</v>
+        <v>1.005796386068845</v>
       </c>
       <c r="F24">
-        <v>1.013185115624323</v>
+        <v>1.013511399876335</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039837547730897</v>
+        <v>1.040174489684165</v>
       </c>
       <c r="J24">
-        <v>1.011365068243351</v>
+        <v>1.012282811480262</v>
       </c>
       <c r="K24">
-        <v>1.022971637858297</v>
+        <v>1.023767513902811</v>
       </c>
       <c r="L24">
-        <v>1.019451532461834</v>
+        <v>1.019722469600842</v>
       </c>
       <c r="M24">
-        <v>1.0269845757959</v>
+        <v>1.027305323337859</v>
       </c>
       <c r="N24">
-        <v>1.007774976859983</v>
+        <v>1.010614460511714</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029928793274783</v>
+        <v>1.030182647198242</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027364872932197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027941587486357</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018787847150405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9894565522528801</v>
+        <v>0.9901800604193221</v>
       </c>
       <c r="D25">
-        <v>1.012993757564759</v>
+        <v>1.01352206848377</v>
       </c>
       <c r="E25">
-        <v>1.011853152935723</v>
+        <v>1.012057937206355</v>
       </c>
       <c r="F25">
-        <v>1.018996821890849</v>
+        <v>1.019242570964788</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040734860245859</v>
+        <v>1.040955365775092</v>
       </c>
       <c r="J25">
-        <v>1.014344030951394</v>
+        <v>1.015042485114676</v>
       </c>
       <c r="K25">
-        <v>1.025393656119568</v>
+        <v>1.025914036614852</v>
       </c>
       <c r="L25">
-        <v>1.024270208952487</v>
+        <v>1.024471909144006</v>
       </c>
       <c r="M25">
-        <v>1.03130722427271</v>
+        <v>1.031549338158716</v>
       </c>
       <c r="N25">
-        <v>1.008779460211728</v>
+        <v>1.011306918311321</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033349922471755</v>
+        <v>1.033541541278963</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029074508286983</v>
+        <v>1.029456120678887</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019196244409244</v>
       </c>
     </row>
   </sheetData>
